--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B0213-8B18-4279-9CBB-E1435FF25E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD067D98-5CDB-4D25-9A37-F25172C23250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Accuracy</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Maior accuracy, menor loss nos dados treino e validação</t>
+  </si>
+  <si>
+    <t>Tentativa 2</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -239,54 +242,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,195 +330,26 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>16.682170867919918</v>
-          </cell>
-          <cell r="C2">
-            <v>0.78594928979873657</v>
-          </cell>
           <cell r="D2">
-            <v>10.659807205200201</v>
-          </cell>
-          <cell r="E2">
-            <v>0.79379844665527344</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>9.3888750076293945</v>
-          </cell>
-          <cell r="C3">
-            <v>0.853493332862854</v>
-          </cell>
-          <cell r="D3">
-            <v>9.7732210159301758</v>
-          </cell>
-          <cell r="E3">
-            <v>0.82790696620941162</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>15.0443000793457</v>
-          </cell>
-          <cell r="C4">
-            <v>0.84304237365722656</v>
-          </cell>
-          <cell r="D4">
-            <v>25.038455963134769</v>
-          </cell>
-          <cell r="E4">
-            <v>0.85891473293304443</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>12.11360454559326</v>
-          </cell>
-          <cell r="C5">
-            <v>0.86007356643676758</v>
-          </cell>
-          <cell r="D5">
-            <v>25.36898231506348</v>
-          </cell>
-          <cell r="E5">
-            <v>0.86356586217880249</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>5.205345630645752</v>
-          </cell>
-          <cell r="C6">
-            <v>0.90981227159500122</v>
-          </cell>
-          <cell r="D6">
-            <v>21.967300415039059</v>
-          </cell>
-          <cell r="E6">
-            <v>0.86356586217880249</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.946480870246887</v>
-          </cell>
-          <cell r="C7">
-            <v>0.94735825061798096</v>
-          </cell>
-          <cell r="D7">
-            <v>25.33234977722168</v>
-          </cell>
-          <cell r="E7">
-            <v>0.86976742744445801</v>
+            <v>10.148690223693849</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>1.486925482749939</v>
-          </cell>
-          <cell r="C8">
-            <v>0.95664793252944946</v>
-          </cell>
-          <cell r="D8">
-            <v>22.27250862121582</v>
-          </cell>
-          <cell r="E8">
-            <v>0.86821705102920532</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>1.722031950950623</v>
-          </cell>
-          <cell r="C9">
-            <v>0.95626085996627808</v>
-          </cell>
-          <cell r="D9">
-            <v>15.3460693359375</v>
-          </cell>
-          <cell r="E9">
-            <v>0.87131780385971069</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>1.859768271446228</v>
-          </cell>
-          <cell r="C10">
-            <v>0.94948714971542358</v>
-          </cell>
-          <cell r="D10">
-            <v>13.601340293884279</v>
-          </cell>
-          <cell r="E10">
-            <v>0.78914725780487061</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.79718124866485596</v>
-          </cell>
-          <cell r="C11">
-            <v>0.97619509696960449</v>
-          </cell>
-          <cell r="D11">
-            <v>17.500345230102539</v>
-          </cell>
-          <cell r="E11">
-            <v>0.70852714776992798</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>13.8674259185791</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.74343121051788297</v>
+            <v>1.183063268661499</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="7">
-          <cell r="G7">
-            <v>3</v>
-          </cell>
-          <cell r="H7">
-            <v>2</v>
-          </cell>
-          <cell r="I7">
-            <v>0</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>0</v>
-          </cell>
-          <cell r="H8">
-            <v>1</v>
-          </cell>
-          <cell r="I8">
-            <v>0</v>
-          </cell>
-          <cell r="J8">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -838,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948D5B6-6FD1-4CEE-888B-32B16A089BB5}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -855,32 +689,32 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
@@ -899,16 +733,16 @@
       <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
@@ -937,23 +771,28 @@
       <c r="G3" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="3">
         <v>1.7</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -971,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958D01A-1FD4-424E-90C2-02670CB55CFF}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,31 +830,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
       <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D2" s="14"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1034,16 +873,16 @@
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P2" t="s">
@@ -1054,10 +893,10 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3">
@@ -1075,72 +914,62 @@
       <c r="H3" s="3">
         <v>11.11</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="3">
         <v>0.96740000000000004</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="3">
         <v>10.38</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="6">
         <v>45.7</v>
       </c>
-      <c r="E4" s="20">
-        <f>[1]Geral!$B$13</f>
+      <c r="E4" s="7">
         <v>0.74343121051788297</v>
       </c>
-      <c r="F4" s="19">
-        <f>MAX([1]Geral!$C$2:$C$11)</f>
+      <c r="F4" s="6">
         <v>0.97619509696960449</v>
       </c>
-      <c r="G4" s="20">
-        <f>MAX([1]Geral!$E$2:$E$11)</f>
+      <c r="G4" s="7">
         <v>0.87131780385971069</v>
       </c>
-      <c r="H4" s="19">
-        <f>[1]Geral!$B$12</f>
+      <c r="H4" s="6">
         <v>13.8674259185791</v>
       </c>
-      <c r="I4" s="19">
-        <f>MIN([1]Geral!$B$2:$B$11)</f>
+      <c r="I4" s="6">
         <v>0.79718124866485596</v>
       </c>
-      <c r="J4" s="21">
-        <f>MIN([1]Geral!$D$2:$D$11)</f>
+      <c r="J4" s="8">
         <v>9.7732210159301758</v>
       </c>
-      <c r="K4" s="19">
-        <f>[1]Métricas!$G$7+[1]Métricas!$G$8</f>
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="L4" s="19">
-        <f>[1]Métricas!$H$7+[1]Métricas!$H$8</f>
+      <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="19">
-        <f>[1]Métricas!$I$7+[1]Métricas!$I$8</f>
+      <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="19">
-        <f>[1]Métricas!$J$7+[1]Métricas!$J$8</f>
+      <c r="N4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1153,9 +982,6 @@
     <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="L4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1164,44 +990,48 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.7265625" style="2"/>
-    <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="2"/>
+    <col min="14" max="14" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D2" s="14"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1220,16 +1050,16 @@
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1237,33 +1067,82 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="D3" s="3">
+        <v>53.14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.78018575906753496</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.98119062185287476</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.80590063333511353</v>
+      </c>
+      <c r="H3" s="10">
+        <v>15.499626159667899</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.40975356101989752</v>
+      </c>
+      <c r="J3" s="10">
+        <v>13.315666198730471</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="D4" s="3">
+        <v>48.88</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.9535602331161499E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.96187341213226318</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.86976742744445801</v>
+      </c>
+      <c r="H4" s="10">
+        <v>387.74050903320301</v>
+      </c>
+      <c r="I4" s="10">
+        <f>[1]Geral!$B$8</f>
+        <v>1.183063268661499</v>
+      </c>
+      <c r="J4" s="10">
+        <f>[1]Geral!$D$2</f>
+        <v>10.148690223693849</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B5" s="21"/>
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD067D98-5CDB-4D25-9A37-F25172C23250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C8D2D-125D-4276-B620-DBE63CAB8F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>Accuracy</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Tentativa 2</t>
+  </si>
+  <si>
+    <t>Com Modelo Tentativa 2 - Material</t>
   </si>
 </sst>
 </file>
@@ -258,15 +261,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,7 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -329,27 +332,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>10.148690223693849</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.183063268661499</v>
+        <row r="10">
+          <cell r="B10">
+            <v>0.28702113032340998</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -674,17 +672,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948D5B6-6FD1-4CEE-888B-32B16A089BB5}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -791,8 +795,41 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="C4" s="6">
+        <v>46.53</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.92581140995025601</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.95335787534713745</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.94573640823364258</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.29969930648803</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.249397754669189</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2.498977899551392</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -808,16 +845,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958D01A-1FD4-424E-90C2-02670CB55CFF}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
@@ -827,6 +864,7 @@
     <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -945,16 +983,16 @@
       <c r="E4" s="7">
         <v>0.74343121051788297</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>0.97619509696960449</v>
       </c>
       <c r="G4" s="7">
         <v>0.87131780385971069</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>13.8674259185791</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>0.79718124866485596</v>
       </c>
       <c r="J4" s="8">
@@ -973,8 +1011,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>54.81</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.84544050693511896</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.81865686178207397</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.85271316766738892</v>
+      </c>
+      <c r="H5" s="10">
+        <v>9.3030242919921804</v>
+      </c>
+      <c r="I5" s="10">
+        <v>13.698649406433111</v>
+      </c>
+      <c r="J5" s="10">
+        <v>10.42210102081299</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="19"/>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
@@ -987,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,7 +1106,7 @@
     <col min="15" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1126,11 @@
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D2" s="18"/>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1062,15 +1162,18 @@
       <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3">
@@ -1107,43 +1210,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="21"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3">
-        <v>48.88</v>
+        <v>54.81</v>
       </c>
       <c r="E4" s="9">
-        <v>4.9535602331161499E-2</v>
+        <v>0.78482973575591997</v>
       </c>
       <c r="F4" s="9">
-        <v>0.96187341213226318</v>
+        <v>0.97459763288497925</v>
       </c>
       <c r="G4" s="9">
-        <v>0.86976742744445801</v>
+        <v>0.8090062141418457</v>
       </c>
       <c r="H4" s="10">
-        <v>387.74050903320301</v>
-      </c>
-      <c r="I4" s="10">
-        <f>[1]Geral!$B$8</f>
-        <v>1.183063268661499</v>
+        <v>16.450542449951101</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.55339562892913818</v>
       </c>
       <c r="J4" s="10">
-        <f>[1]Geral!$D$2</f>
-        <v>10.148690223693849</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>15.13919162750244</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>46.59</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.79256963729858398</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.98409926891326904</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.81055903434753418</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15.1154222488403</v>
+      </c>
+      <c r="I5" s="9">
+        <f>[1]Geral!$B$10</f>
+        <v>0.28702113032340998</v>
+      </c>
+      <c r="J5" s="10">
+        <v>13.91117095947266</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C8D2D-125D-4276-B620-DBE63CAB8F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C49E3-B28B-4C99-A710-C881458875A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
@@ -40,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>Accuracy</t>
   </si>
@@ -58,15 +80,6 @@
     <t>Do Zero</t>
   </si>
   <si>
-    <t>Com Modelo Tentativa 1 - Material</t>
-  </si>
-  <si>
-    <t>Com Modelo Tentativa 1 - Material + Ano (aprendido com Tentativa 1 - Material)</t>
-  </si>
-  <si>
-    <t>Com Modelo Tentativa 1 - Material + Ano (do zero)</t>
-  </si>
-  <si>
     <t>Teste</t>
   </si>
   <si>
@@ -106,7 +119,55 @@
     <t>Tentativa 2</t>
   </si>
   <si>
-    <t>Com Modelo Tentativa 2 - Material</t>
+    <t>Xception</t>
+  </si>
+  <si>
+    <t>Matriz de Confusão</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1 (Material)</t>
+  </si>
+  <si>
+    <t>0 (Nenhuma)</t>
+  </si>
+  <si>
+    <t>1 (Ano)</t>
+  </si>
+  <si>
+    <t>Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</t>
+  </si>
+  <si>
+    <t>Com Tentativa 1 - Material + Ano (Do zero)</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Com Tentativa 1 - Material</t>
+  </si>
+  <si>
+    <t>Com Tentativa 2 - Material</t>
+  </si>
+  <si>
+    <t>1 (Estrutura)</t>
+  </si>
+  <si>
+    <t>2 (Estrutura, Ano)</t>
+  </si>
+  <si>
+    <t>2 (Estrutura, Material)</t>
+  </si>
+  <si>
+    <t>2 (Ano, Material)</t>
+  </si>
+  <si>
+    <t>Métricas superiores ou iguais a 0,9</t>
+  </si>
+  <si>
+    <t>ROC superiores ou iguais a 0,90</t>
   </si>
 </sst>
 </file>
@@ -116,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +188,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -231,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,6 +367,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,6 +393,64 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,633 +828,1256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948D5B6-6FD1-4CEE-888B-32B16A089BB5}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" customWidth="1"/>
+    <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C1" s="2"/>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="2"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <v>45.82</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>0.96450000000000002</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>0.99980000000000002</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>0.9738</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>1.7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
       <c r="L3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6">
         <v>46.53</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>0.92581140995025601</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>0.95335787534713745</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>0.94573640823364258</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>3.29969930648803</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>2.249397754669189</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>2.498977899551392</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
       <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
         <v>1</v>
       </c>
-    </row>
+      <c r="O4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D7" s="23" t="str" cm="1">
+        <f t="array" ref="D7">IF(COUNTIF(D3:D6,MIN(D3:D6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(D3:D6),D3:D6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="E7" s="23" t="str" cm="1">
+        <f t="array" ref="E7">IF(COUNTIF(E3:E6,MAX(E3:E6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(E3:E6),E3:E6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="F7" s="23" t="str" cm="1">
+        <f t="array" ref="F7">IF(COUNTIF(F3:F6,MAX(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(F3:F6),F3:F6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="G7" s="23" t="str" cm="1">
+        <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="H7" s="23" t="str" cm="1">
+        <f t="array" ref="H7">IF(COUNTIF(H3:H6,MIN(H3:H6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(H3:H6),H3:H6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="I7" s="23" t="str" cm="1">
+        <f t="array" ref="I7">IF(COUNTIF(I3:I6,MIN(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(I3:I6),I3:I6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="J7" s="23" t="str" cm="1">
+        <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="K7" s="23" t="str" cm="1">
+        <f t="array" ref="K7">IF(COUNTIF(K3:K6,MAX(K3:K6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(K3:K6),K3:K6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="L7" s="23" t="str" cm="1">
+        <f t="array" ref="L7">IF(COUNTIF(L3:L6,MAX(L3:L6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(L3:L6),L3:L6,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+      <c r="M7" s="23" t="str" cm="1">
+        <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
+        <v>ResNet50 - Tentativa 2</v>
+      </c>
+      <c r="N7" s="23" t="str" cm="1">
+        <f t="array" ref="N7">IF(COUNTIF(N3:N6,MAX(N3:N6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(N3:N6),N3:N6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="O7" s="23" t="str" cm="1">
+        <f t="array" ref="O7">IF(COUNTIF(O3:O6,MAX(O3:O6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(O3:O6),O3:O6,0)))</f>
+        <v>ResNet50 - Tentativa 2</v>
+      </c>
+      <c r="P7" s="24" t="str" cm="1">
+        <f t="array" ref="P7">INDEX(D7:O7,MODE(MATCH(D7:N7,D7:N7,0)))</f>
+        <v>ResNet50 - Tentativa 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:M1"/>
+  <mergeCells count="6">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958D01A-1FD4-424E-90C2-02670CB55CFF}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.08984375" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F2" s="19"/>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="20"/>
+      <c r="W2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D2" s="18"/>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.9698</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="J3" s="3">
+        <v>11.11</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10.38</v>
+      </c>
+      <c r="M3" s="3">
+        <v>520</v>
+      </c>
+      <c r="N3" s="3">
+        <v>7</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45.7</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.74343121051788297</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.97619509696960449</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.87131780385971069</v>
+      </c>
+      <c r="J4" s="8">
+        <v>13.8674259185791</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.79718124866485596</v>
+      </c>
+      <c r="L4" s="8">
+        <v>9.7732210159301758</v>
+      </c>
+      <c r="M4" s="41">
+        <v>481</v>
+      </c>
+      <c r="N4" s="41">
+        <v>6</v>
+      </c>
+      <c r="O4" s="41">
+        <v>2</v>
+      </c>
+      <c r="P4" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6">
+        <v>3</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="37"/>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
-        <v>45.3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.80369999999999997</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.9698</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="H3" s="3">
-        <v>11.11</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="J3" s="3">
-        <v>10.38</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="F5" s="3">
+        <v>54.81</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.84544050693511896</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.81865686178207397</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.85271316766738892</v>
+      </c>
+      <c r="J5" s="10">
+        <v>9.3030242919921804</v>
+      </c>
+      <c r="K5" s="10">
+        <v>13.698649406433111</v>
+      </c>
+      <c r="L5" s="10">
+        <v>10.42210102081299</v>
+      </c>
+      <c r="M5" s="40">
+        <v>547</v>
+      </c>
+      <c r="N5" s="40">
+        <v>4</v>
+      </c>
+      <c r="O5" s="40">
+        <v>2</v>
+      </c>
+      <c r="P5" s="40">
         <v>3</v>
       </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="5" t="s">
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>58.41</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.83771252632141102</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.82465648651123047</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.86046510934829712</v>
+      </c>
+      <c r="J6" s="10">
+        <v>9.0306262969970703</v>
+      </c>
+      <c r="K6" s="10">
+        <v>11.478946685791019</v>
+      </c>
+      <c r="L6" s="10">
+        <v>11.088134765625</v>
+      </c>
+      <c r="M6" s="40">
+        <v>542</v>
+      </c>
+      <c r="N6" s="40">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
-        <v>45.7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.74343121051788297</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.97619509696960449</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.87131780385971069</v>
-      </c>
-      <c r="H4" s="8">
-        <v>13.8674259185791</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.79718124866485596</v>
-      </c>
-      <c r="J4" s="8">
-        <v>9.7732210159301758</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="O6" s="40">
+        <v>2</v>
+      </c>
+      <c r="P6" s="40">
         <v>3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="Q6" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>54.81</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.84544050693511896</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.81865686178207397</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.85271316766738892</v>
-      </c>
-      <c r="H5" s="10">
-        <v>9.3030242919921804</v>
-      </c>
-      <c r="I5" s="10">
-        <v>13.698649406433111</v>
-      </c>
-      <c r="J5" s="10">
-        <v>10.42210102081299</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
         <v>1</v>
       </c>
-      <c r="N5" s="3">
+      <c r="T6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="39"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+    </row>
+    <row r="8" spans="1:23" s="23" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="23" t="str" cm="1">
+        <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="G8" s="23" t="str" cm="1">
+        <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="H8" s="23" t="str" cm="1">
+        <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
+      <c r="I8" s="23" t="str" cm="1">
+        <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
+      <c r="J8" s="23" t="str" cm="1">
+        <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+      </c>
+      <c r="K8" s="23" t="str" cm="1">
+        <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
+      <c r="L8" s="23" t="str" cm="1">
+        <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
+      <c r="M8" s="23" t="str" cm="1">
+        <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="N8" s="23" t="str" cm="1">
+        <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="O8" s="23" t="str" cm="1">
+        <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="P8" s="23" t="str" cm="1">
+        <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="Q8" s="23" t="str" cm="1">
+        <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="R8" s="23" t="str" cm="1">
+        <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
+      <c r="S8" s="23" t="str" cm="1">
+        <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="T8" s="23" t="str" cm="1">
+        <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="U8" s="23" t="str" cm="1">
+        <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="V8" s="24" t="str" cm="1">
+        <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:T8,F8:T8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:N1"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M8:N8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7265625" style="2"/>
+    <col min="27" max="27" width="46.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="F2" s="19"/>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="19"/>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>53.14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.78018575906753496</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.98119062185287476</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.80590063333511353</v>
+      </c>
+      <c r="J3" s="10">
+        <v>15.499626159667899</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.40975356101989752</v>
+      </c>
+      <c r="L3" s="10">
+        <v>13.315666198730471</v>
+      </c>
+      <c r="M3" s="40">
+        <v>503</v>
+      </c>
+      <c r="N3" s="40">
+        <v>8</v>
+      </c>
+      <c r="O3" s="40">
+        <v>0</v>
+      </c>
+      <c r="P3" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>12</v>
+      </c>
+      <c r="R3" s="40">
+        <v>0</v>
+      </c>
+      <c r="S3" s="40">
+        <v>5</v>
+      </c>
+      <c r="T3" s="40">
+        <v>13</v>
+      </c>
+      <c r="U3" s="3">
+        <v>10</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>54.81</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.78482973575591997</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.97459763288497925</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.8090062141418457</v>
+      </c>
+      <c r="J4" s="10">
+        <v>16.450542449951101</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.55339562892913818</v>
+      </c>
+      <c r="L4" s="10">
+        <v>15.13919162750244</v>
+      </c>
+      <c r="M4" s="40">
+        <v>506</v>
+      </c>
+      <c r="N4" s="40">
+        <v>8</v>
+      </c>
+      <c r="O4" s="40">
+        <v>0</v>
+      </c>
+      <c r="P4" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>8</v>
+      </c>
+      <c r="R4" s="40">
+        <v>0</v>
+      </c>
+      <c r="S4" s="40">
+        <v>6</v>
+      </c>
+      <c r="T4" s="40">
         <v>11</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D2" s="18"/>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="U4" s="3">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="37"/>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>53.14</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.78018575906753496</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.98119062185287476</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.80590063333511353</v>
-      </c>
-      <c r="H3" s="10">
-        <v>15.499626159667899</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.40975356101989752</v>
-      </c>
-      <c r="J3" s="10">
-        <v>13.315666198730471</v>
-      </c>
-      <c r="K3" s="3">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>54.81</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.78482973575591997</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.97459763288497925</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.8090062141418457</v>
-      </c>
-      <c r="H4" s="10">
-        <v>16.450542449951101</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.55339562892913818</v>
-      </c>
-      <c r="J4" s="10">
-        <v>15.13919162750244</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="22"/>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
         <v>46.59</v>
       </c>
-      <c r="E5" s="9">
+      <c r="G5" s="9">
         <v>0.79256963729858398</v>
       </c>
-      <c r="F5" s="9">
+      <c r="H5" s="9">
         <v>0.98409926891326904</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5" s="9">
         <v>0.81055903434753418</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>15.1154222488403</v>
       </c>
-      <c r="I5" s="9">
+      <c r="K5" s="9">
         <f>[1]Geral!$B$10</f>
         <v>0.28702113032340998</v>
       </c>
-      <c r="J5" s="10">
+      <c r="L5" s="10">
         <v>13.91117095947266</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="40">
+        <v>512</v>
+      </c>
+      <c r="N5" s="40">
+        <v>11</v>
+      </c>
+      <c r="O5" s="40">
+        <v>0</v>
+      </c>
+      <c r="P5" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>9</v>
+      </c>
+      <c r="R5" s="40">
+        <v>0</v>
+      </c>
+      <c r="S5" s="40">
+        <v>5</v>
+      </c>
+      <c r="T5" s="40">
+        <v>8</v>
+      </c>
+      <c r="U5" s="3">
         <v>10</v>
       </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>2</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3">
         <v>1</v>
       </c>
+      <c r="Y5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="39"/>
+      <c r="B6"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+    </row>
+    <row r="7" spans="1:27" s="31" customFormat="1" ht="76" x14ac:dyDescent="0.35">
+      <c r="F7" s="31" t="str" cm="1">
+        <f t="array" ref="F7">IF(COUNTIF(F3:F6,MIN(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(F3:F6),F3:F6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="G7" s="31" t="str" cm="1">
+        <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="H7" s="31" t="str" cm="1">
+        <f t="array" ref="H7">IF(COUNTIF(H3:H6,MAX(H3:H6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(H3:H6),H3:H6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="I7" s="31" t="str" cm="1">
+        <f t="array" ref="I7">IF(COUNTIF(I3:I6,MAX(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(I3:I6),I3:I6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="J7" s="31" t="str" cm="1">
+        <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="K7" s="31" t="str" cm="1">
+        <f t="array" ref="K7">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="L7" s="31" t="str" cm="1">
+        <f t="array" ref="L7">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="M7" s="31" t="str" cm="1">
+        <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="N7" s="31" t="str" cm="1">
+        <f t="array" ref="N7">IF(COUNTIF(N3:N6,MIN(N3:N6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(N3:N6),N3:N6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="O7" s="31" t="str" cm="1">
+        <f t="array" ref="O7">IF(COUNTIF(O3:O6,MIN(O3:O6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(O3:O6),O3:O6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="P7" s="31" t="str" cm="1">
+        <f t="array" ref="P7">IF(COUNTIF(P3:P6,MIN(P3:P6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(P3:P6),P3:P6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="Q7" s="31" t="str" cm="1">
+        <f t="array" ref="Q7">IF(COUNTIF(Q3:Q6,MIN(Q3:Q6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(Q3:Q6),Q3:Q6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do zero)</v>
+      </c>
+      <c r="R7" s="31" t="str" cm="1">
+        <f t="array" ref="R7">IF(COUNTIF(R3:R6,MAX(R3:R6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(R3:R6),R3:R6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="S7" s="31" t="str" cm="1">
+        <f t="array" ref="S7">IF(COUNTIF(S3:S6,MAX(S3:S6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(S3:S6),S3:S6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do zero)</v>
+      </c>
+      <c r="T7" s="31" t="str" cm="1">
+        <f t="array" ref="T7">IF(COUNTIF(T3:T6,MAX(T3:T6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(T3:T6),T3:T6,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="U7" s="31" t="str" cm="1">
+        <f t="array" ref="U7">IF(COUNTIF(U3:U6,MAX(U3:U6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(U3:U6),U3:U6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="V7" s="31" t="str" cm="1">
+        <f t="array" ref="V7">IF(COUNTIF(V3:V6,MAX(V3:V6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(V3:V6),V3:V6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="W7" s="31" t="str" cm="1">
+        <f t="array" ref="W7">IF(COUNTIF(W3:W6,MAX(W3:W6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(W3:W6),W3:W6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="X7" s="31" t="str" cm="1">
+        <f t="array" ref="X7">IF(COUNTIF(X3:X6,MAX(X3:X6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(X3:X6),X3:X6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="Y7" s="31" t="str" cm="1">
+        <f t="array" ref="Y7">IF(COUNTIF(Y3:Y6,MAX(Y3:Y6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(Y3:Y6),Y3:Y6,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="Z7" s="32" t="str" cm="1">
+        <f t="array" ref="Z7">INDEX(F7:Y7,MODE(MATCH(F7:X7,F7:X7,0)))</f>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:N1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C49E3-B28B-4C99-A710-C881458875A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C9573-89D7-4C14-A41E-0E73FC15CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
     <sheet name="Material + Ano" sheetId="2" r:id="rId2"/>
     <sheet name="Material + Ano + Estrutura" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
   <si>
     <t>Accuracy</t>
   </si>
@@ -328,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,6 +367,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,71 +435,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,48 +468,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Geral"/>
-      <sheetName val="Loss e Accuracy"/>
-      <sheetName val="Matriz Confusão"/>
-      <sheetName val="Matriz Confusão 2"/>
-      <sheetName val="Comentários"/>
-      <sheetName val="Métricas"/>
-      <sheetName val="Accuracy"/>
-      <sheetName val="Precision"/>
-      <sheetName val="Recall"/>
-      <sheetName val="F1"/>
-      <sheetName val="ROC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="B10">
-            <v>0.28702113032340998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,11 +790,12 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -849,26 +809,26 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="2"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="20" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="32" t="s">
         <v>26</v>
       </c>
       <c r="Q1" t="s">
@@ -877,7 +837,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="19"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
@@ -908,13 +868,13 @@
       <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="32"/>
       <c r="Q2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -961,7 +921,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +966,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -1015,85 +975,109 @@
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="D5" s="6">
+        <v>43.22</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.64605873823165805</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.97807574272155762</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.94728684425354004</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.7580696344375599</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.90981227159500122</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.44961240887641912</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="1:17" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="D7" s="23" t="str" cm="1">
+      <c r="A6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D7" s="15" t="str" cm="1">
         <f t="array" ref="D7">IF(COUNTIF(D3:D6,MIN(D3:D6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(D3:D6),D3:D6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="E7" s="23" t="str" cm="1">
+        <v>Xception - Tentativa 1</v>
+      </c>
+      <c r="E7" s="15" t="str" cm="1">
         <f t="array" ref="E7">IF(COUNTIF(E3:E6,MAX(E3:E6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(E3:E6),E3:E6,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="F7" s="23" t="str" cm="1">
+      <c r="F7" s="15" t="str" cm="1">
         <f t="array" ref="F7">IF(COUNTIF(F3:F6,MAX(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(F3:F6),F3:F6,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="G7" s="23" t="str" cm="1">
+      <c r="G7" s="15" t="str" cm="1">
         <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="H7" s="23" t="str" cm="1">
+      <c r="H7" s="15" t="str" cm="1">
         <f t="array" ref="H7">IF(COUNTIF(H3:H6,MIN(H3:H6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(H3:H6),H3:H6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="I7" s="23" t="str" cm="1">
+        <v>Xception - Tentativa 1</v>
+      </c>
+      <c r="I7" s="15" t="str" cm="1">
         <f t="array" ref="I7">IF(COUNTIF(I3:I6,MIN(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(I3:I6),I3:I6,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="J7" s="23" t="str" cm="1">
+      <c r="J7" s="15" t="str" cm="1">
         <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="K7" s="23" t="str" cm="1">
+        <v>Xception - Tentativa 1</v>
+      </c>
+      <c r="K7" s="15" t="str" cm="1">
         <f t="array" ref="K7">IF(COUNTIF(K3:K6,MAX(K3:K6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(K3:K6),K3:K6,0)))</f>
         <v>-</v>
       </c>
-      <c r="L7" s="23" t="str" cm="1">
+      <c r="L7" s="15" t="str" cm="1">
         <f t="array" ref="L7">IF(COUNTIF(L3:L6,MAX(L3:L6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(L3:L6),L3:L6,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="M7" s="23" t="str" cm="1">
+      <c r="M7" s="15" t="str" cm="1">
         <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="N7" s="23" t="str" cm="1">
+      <c r="N7" s="15" t="str" cm="1">
         <f t="array" ref="N7">IF(COUNTIF(N3:N6,MAX(N3:N6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(N3:N6),N3:N6,0)))</f>
         <v>-</v>
       </c>
-      <c r="O7" s="23" t="str" cm="1">
+      <c r="O7" s="15" t="str" cm="1">
         <f t="array" ref="O7">IF(COUNTIF(O3:O6,MAX(O3:O6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(O3:O6),O3:O6,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="P7" s="24" t="str" cm="1">
+      <c r="P7" s="16" t="str" cm="1">
         <f t="array" ref="P7">INDEX(D7:O7,MODE(MATCH(D7:N7,D7:N7,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
@@ -1101,12 +1085,12 @@
     <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958D01A-1FD4-424E-90C2-02670CB55CFF}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
@@ -1148,32 +1132,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="15" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="21" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="20" t="s">
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="32" t="s">
         <v>26</v>
       </c>
       <c r="W1" t="s">
@@ -1181,7 +1165,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F2" s="19"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1224,19 +1208,19 @@
       <c r="T2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="20"/>
+      <c r="U2" s="32"/>
       <c r="W2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -1295,11 +1279,11 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1327,16 +1311,16 @@
       <c r="L4" s="8">
         <v>9.7732210159301758</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="29">
         <v>481</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="29">
         <v>6</v>
       </c>
-      <c r="O4" s="41">
-        <v>2</v>
-      </c>
-      <c r="P4" s="41">
+      <c r="O4" s="29">
+        <v>2</v>
+      </c>
+      <c r="P4" s="29">
         <v>2</v>
       </c>
       <c r="Q4" s="6">
@@ -1356,11 +1340,11 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="31"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -1390,16 +1374,16 @@
       <c r="L5" s="10">
         <v>10.42210102081299</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="28">
         <v>547</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="28">
         <v>4</v>
       </c>
-      <c r="O5" s="40">
-        <v>2</v>
-      </c>
-      <c r="P5" s="40">
+      <c r="O5" s="28">
+        <v>2</v>
+      </c>
+      <c r="P5" s="28">
         <v>3</v>
       </c>
       <c r="Q5" s="3">
@@ -1419,11 +1403,11 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
+      <c r="A6" s="31"/>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1451,16 +1435,16 @@
       <c r="L6" s="10">
         <v>11.088134765625</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="28">
         <v>542</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="28">
         <v>5</v>
       </c>
-      <c r="O6" s="40">
-        <v>2</v>
-      </c>
-      <c r="P6" s="40">
+      <c r="O6" s="28">
+        <v>2</v>
+      </c>
+      <c r="P6" s="28">
         <v>3</v>
       </c>
       <c r="Q6" s="3">
@@ -1480,93 +1464,93 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-    </row>
-    <row r="8" spans="1:23" s="23" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="23" t="str" cm="1">
+      <c r="A7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" s="15" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="15" t="str" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="G8" s="23" t="str" cm="1">
+      <c r="G8" s="15" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="H8" s="23" t="str" cm="1">
+      <c r="H8" s="15" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="I8" s="23" t="str" cm="1">
+      <c r="I8" s="15" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="J8" s="23" t="str" cm="1">
+      <c r="J8" s="15" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
         <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
-      <c r="K8" s="23" t="str" cm="1">
+      <c r="K8" s="15" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="L8" s="23" t="str" cm="1">
+      <c r="L8" s="15" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="M8" s="23" t="str" cm="1">
+      <c r="M8" s="15" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="N8" s="23" t="str" cm="1">
+      <c r="N8" s="15" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="O8" s="23" t="str" cm="1">
+      <c r="O8" s="15" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
         <v>-</v>
       </c>
-      <c r="P8" s="23" t="str" cm="1">
+      <c r="P8" s="15" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Q8" s="23" t="str" cm="1">
+      <c r="Q8" s="15" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
         <v>-</v>
       </c>
-      <c r="R8" s="23" t="str" cm="1">
+      <c r="R8" s="15" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="S8" s="23" t="str" cm="1">
+      <c r="S8" s="15" t="str" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
         <v>-</v>
       </c>
-      <c r="T8" s="23" t="str" cm="1">
+      <c r="T8" s="15" t="str" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
         <v>-</v>
       </c>
-      <c r="U8" s="23" t="str" cm="1">
+      <c r="U8" s="15" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="V8" s="24" t="str" cm="1">
+      <c r="V8" s="16" t="str" cm="1">
         <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:T8,F8:T8,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
@@ -1592,23 +1576,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.36328125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -1629,36 +1613,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="15" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="21" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="18" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="36" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
@@ -1666,7 +1650,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F2" s="19"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1721,22 +1705,22 @@
       <c r="X2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="19"/>
+      <c r="Y2" s="37"/>
       <c r="AA2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1763,28 +1747,28 @@
       <c r="L3" s="10">
         <v>13.315666198730471</v>
       </c>
-      <c r="M3" s="40">
+      <c r="M3" s="28">
         <v>503</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N3" s="28">
         <v>8</v>
       </c>
-      <c r="O3" s="40">
+      <c r="O3" s="28">
         <v>0</v>
       </c>
-      <c r="P3" s="40">
+      <c r="P3" s="28">
         <v>3</v>
       </c>
-      <c r="Q3" s="40">
+      <c r="Q3" s="28">
         <v>12</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="28">
         <v>0</v>
       </c>
-      <c r="S3" s="40">
+      <c r="S3" s="28">
         <v>5</v>
       </c>
-      <c r="T3" s="40">
+      <c r="T3" s="28">
         <v>13</v>
       </c>
       <c r="U3" s="3">
@@ -1802,17 +1786,17 @@
       <c r="Y3" s="3">
         <v>3</v>
       </c>
-      <c r="AA3" s="42" t="s">
+      <c r="AA3" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1839,28 +1823,28 @@
       <c r="L4" s="10">
         <v>15.13919162750244</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="28">
         <v>506</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="28">
         <v>8</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="28">
         <v>0</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="28">
         <v>4</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="28">
         <v>8</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="28">
         <v>0</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="28">
         <v>6</v>
       </c>
-      <c r="T4" s="40">
+      <c r="T4" s="28">
         <v>11</v>
       </c>
       <c r="U4" s="3">
@@ -1879,13 +1863,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1903,38 +1887,37 @@
       <c r="I5" s="9">
         <v>0.81055903434753418</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="10">
         <v>15.1154222488403</v>
       </c>
       <c r="K5" s="9">
-        <f>[1]Geral!$B$10</f>
         <v>0.28702113032340998</v>
       </c>
       <c r="L5" s="10">
         <v>13.91117095947266</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="28">
         <v>512</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="28">
         <v>11</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="28">
         <v>0</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="28">
         <v>3</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="28">
         <v>9</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="28">
         <v>0</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="28">
         <v>5</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T5" s="28">
         <v>8</v>
       </c>
       <c r="U5" s="3">
@@ -1953,116 +1936,183 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
-      <c r="B6"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-    </row>
-    <row r="7" spans="1:27" s="31" customFormat="1" ht="76" x14ac:dyDescent="0.35">
-      <c r="F7" s="31" t="str" cm="1">
-        <f t="array" ref="F7">IF(COUNTIF(F3:F6,MIN(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(F3:F6),F3:F6,0)))</f>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>48.64</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.67027860879898005</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.74558854103088379</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.67701864242553711</v>
+      </c>
+      <c r="J6" s="10">
+        <v>22.851518630981399</v>
+      </c>
+      <c r="K6" s="10">
+        <v>14.361519813537599</v>
+      </c>
+      <c r="L6" s="10">
+        <v>16.079257965087891</v>
+      </c>
+      <c r="M6" s="28">
+        <v>432</v>
+      </c>
+      <c r="N6" s="28">
+        <v>10</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>7</v>
+      </c>
+      <c r="R6" s="28">
+        <v>0</v>
+      </c>
+      <c r="S6" s="28">
+        <v>4</v>
+      </c>
+      <c r="T6" s="28">
+        <v>9</v>
+      </c>
+      <c r="U6" s="3">
+        <v>8</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8" spans="1:27" s="22" customFormat="1" ht="76" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="22" t="str" cm="1">
+        <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="G7" s="31" t="str" cm="1">
-        <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
+      <c r="G8" s="22" t="str" cm="1">
+        <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="H7" s="31" t="str" cm="1">
-        <f t="array" ref="H7">IF(COUNTIF(H3:H6,MAX(H3:H6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(H3:H6),H3:H6,0)))</f>
+      <c r="H8" s="22" t="str" cm="1">
+        <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="I7" s="31" t="str" cm="1">
-        <f t="array" ref="I7">IF(COUNTIF(I3:I6,MAX(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(I3:I6),I3:I6,0)))</f>
+      <c r="I8" s="22" t="str" cm="1">
+        <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="J7" s="31" t="str" cm="1">
-        <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
+      <c r="J8" s="22" t="str" cm="1">
+        <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="K7" s="31" t="str" cm="1">
-        <f t="array" ref="K7">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
+      <c r="K8" s="22" t="str" cm="1">
+        <f t="array" ref="K8">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="L7" s="31" t="str" cm="1">
-        <f t="array" ref="L7">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
+      <c r="L8" s="22" t="str" cm="1">
+        <f t="array" ref="L8">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="M7" s="31" t="str" cm="1">
-        <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
+      <c r="M8" s="22" t="str" cm="1">
+        <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="N7" s="31" t="str" cm="1">
-        <f t="array" ref="N7">IF(COUNTIF(N3:N6,MIN(N3:N6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(N3:N6),N3:N6,0)))</f>
+      <c r="N8" s="22" t="str" cm="1">
+        <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
         <v>-</v>
       </c>
-      <c r="O7" s="31" t="str" cm="1">
-        <f t="array" ref="O7">IF(COUNTIF(O3:O6,MIN(O3:O6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(O3:O6),O3:O6,0)))</f>
+      <c r="O8" s="22" t="str" cm="1">
+        <f t="array" ref="O8">IF(COUNTIF(O3:O7,MIN(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(O3:O7),O3:O7,0)))</f>
         <v>-</v>
       </c>
-      <c r="P7" s="31" t="str" cm="1">
-        <f t="array" ref="P7">IF(COUNTIF(P3:P6,MIN(P3:P6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(P3:P6),P3:P6,0)))</f>
+      <c r="P8" s="22" t="str" cm="1">
+        <f t="array" ref="P8">IF(COUNTIF(P3:P7,MIN(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(P3:P7),P3:P7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Q7" s="31" t="str" cm="1">
-        <f t="array" ref="Q7">IF(COUNTIF(Q3:Q6,MIN(Q3:Q6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MIN(Q3:Q6),Q3:Q6,0)))</f>
+      <c r="Q8" s="22" t="str" cm="1">
+        <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MIN(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(Q3:Q7),Q3:Q7,0)))</f>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="R8" s="22" t="str" cm="1">
+        <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="S8" s="22" t="str" cm="1">
+        <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do zero)</v>
       </c>
-      <c r="R7" s="31" t="str" cm="1">
-        <f t="array" ref="R7">IF(COUNTIF(R3:R6,MAX(R3:R6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(R3:R6),R3:R6,0)))</f>
+      <c r="T8" s="22" t="str" cm="1">
+        <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="U8" s="22" t="str" cm="1">
+        <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
         <v>-</v>
       </c>
-      <c r="S7" s="31" t="str" cm="1">
-        <f t="array" ref="S7">IF(COUNTIF(S3:S6,MAX(S3:S6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(S3:S6),S3:S6,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do zero)</v>
-      </c>
-      <c r="T7" s="31" t="str" cm="1">
-        <f t="array" ref="T7">IF(COUNTIF(T3:T6,MAX(T3:T6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(T3:T6),T3:T6,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="U7" s="31" t="str" cm="1">
-        <f t="array" ref="U7">IF(COUNTIF(U3:U6,MAX(U3:U6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(U3:U6),U3:U6,0)))</f>
+      <c r="V8" s="22" t="str" cm="1">
+        <f t="array" ref="V8">IF(COUNTIF(V3:V7,MAX(V3:V7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(V3:V7),V3:V7,0)))</f>
         <v>-</v>
       </c>
-      <c r="V7" s="31" t="str" cm="1">
-        <f t="array" ref="V7">IF(COUNTIF(V3:V6,MAX(V3:V6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(V3:V6),V3:V6,0)))</f>
+      <c r="W8" s="22" t="str" cm="1">
+        <f t="array" ref="W8">IF(COUNTIF(W3:W7,MAX(W3:W7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(W3:W7),W3:W7,0)))</f>
         <v>-</v>
       </c>
-      <c r="W7" s="31" t="str" cm="1">
-        <f t="array" ref="W7">IF(COUNTIF(W3:W6,MAX(W3:W6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(W3:W6),W3:W6,0)))</f>
+      <c r="X8" s="22" t="str" cm="1">
+        <f t="array" ref="X8">IF(COUNTIF(X3:X7,MAX(X3:X7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(X3:X7),X3:X7,0)))</f>
         <v>-</v>
       </c>
-      <c r="X7" s="31" t="str" cm="1">
-        <f t="array" ref="X7">IF(COUNTIF(X3:X6,MAX(X3:X6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(X3:X6),X3:X6,0)))</f>
+      <c r="Y8" s="22" t="str" cm="1">
+        <f t="array" ref="Y8">IF(COUNTIF(Y3:Y7,MAX(Y3:Y7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Y3:Y7),Y3:Y7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Y7" s="31" t="str" cm="1">
-        <f t="array" ref="Y7">IF(COUNTIF(Y3:Y6,MAX(Y3:Y6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$D$3:$D$6&amp;" "&amp;$E$3:$E$6,MATCH(MAX(Y3:Y6),Y3:Y6,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="Z7" s="32" t="str" cm="1">
-        <f t="array" ref="Z7">INDEX(F7:Y7,MODE(MATCH(F7:X7,F7:X7,0)))</f>
+      <c r="Z8" s="23" t="str" cm="1">
+        <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:X8,F8:X8,0)))</f>
         <v>-</v>
       </c>
     </row>

--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C9573-89D7-4C14-A41E-0E73FC15CBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C703492D-D7A4-48DC-A329-1DA6102E252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -227,12 +227,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -325,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,34 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -404,15 +382,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,20 +410,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948D5B6-6FD1-4CEE-888B-32B16A089BB5}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,26 +844,26 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="2"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="32" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="21" t="s">
         <v>26</v>
       </c>
       <c r="Q1" t="s">
@@ -837,7 +872,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="37"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
@@ -868,13 +903,13 @@
       <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="32"/>
+      <c r="O2" s="21"/>
       <c r="Q2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -883,203 +918,179 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>45.82</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.96450000000000002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.9738</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="30">
+        <v>46.53</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.92581140995025601</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0.95335787534713745</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.94573640823364258</v>
+      </c>
+      <c r="H4" s="32">
+        <v>3.29969930648803</v>
+      </c>
+      <c r="I4" s="32">
+        <v>2.249397754669189</v>
+      </c>
+      <c r="J4" s="32">
+        <v>2.498977899551392</v>
+      </c>
+      <c r="K4" s="30">
         <v>3</v>
       </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L4" s="30">
         <v>1</v>
       </c>
-      <c r="N3" s="3">
+      <c r="M4" s="30">
+        <v>2</v>
+      </c>
+      <c r="N4" s="30">
         <v>1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O4" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>43.22</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.64605873823165805</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.97807574272155762</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.94728684425354004</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1.7580696344375599</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0.90981227159500122</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.44961240887641912</v>
+      </c>
+      <c r="K5" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6">
-        <v>46.53</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.92581140995025601</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.95335787534713745</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.94573640823364258</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3.29969930648803</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2.249397754669189</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2.498977899551392</v>
-      </c>
-      <c r="K4" s="6">
-        <v>3</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="L5" s="30">
         <v>1</v>
       </c>
-      <c r="M4" s="6">
-        <v>2</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>43.22</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.64605873823165805</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.97807574272155762</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.94728684425354004</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1.7580696344375599</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.90981227159500122</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.44961240887641912</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="M5" s="30">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="30">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="D7" s="15" t="str" cm="1">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D7" s="5" t="str" cm="1">
         <f t="array" ref="D7">IF(COUNTIF(D3:D6,MIN(D3:D6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(D3:D6),D3:D6,0)))</f>
         <v>Xception - Tentativa 1</v>
       </c>
-      <c r="E7" s="15" t="str" cm="1">
+      <c r="E7" s="5" t="str" cm="1">
         <f t="array" ref="E7">IF(COUNTIF(E3:E6,MAX(E3:E6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(E3:E6),E3:E6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="F7" s="15" t="str" cm="1">
+        <v>ResNet50 - Tentativa 2</v>
+      </c>
+      <c r="F7" s="5" t="str" cm="1">
         <f t="array" ref="F7">IF(COUNTIF(F3:F6,MAX(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(F3:F6),F3:F6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="G7" s="15" t="str" cm="1">
+        <v>Xception - Tentativa 1</v>
+      </c>
+      <c r="G7" s="5" t="str" cm="1">
         <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="H7" s="15" t="str" cm="1">
+        <v>Xception - Tentativa 1</v>
+      </c>
+      <c r="H7" s="5" t="str" cm="1">
         <f t="array" ref="H7">IF(COUNTIF(H3:H6,MIN(H3:H6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(H3:H6),H3:H6,0)))</f>
         <v>Xception - Tentativa 1</v>
       </c>
-      <c r="I7" s="15" t="str" cm="1">
+      <c r="I7" s="5" t="str" cm="1">
         <f t="array" ref="I7">IF(COUNTIF(I3:I6,MIN(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(I3:I6),I3:I6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="J7" s="15" t="str" cm="1">
+        <v>Xception - Tentativa 1</v>
+      </c>
+      <c r="J7" s="5" t="str" cm="1">
         <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
         <v>Xception - Tentativa 1</v>
       </c>
-      <c r="K7" s="15" t="str" cm="1">
+      <c r="K7" s="5" t="str" cm="1">
         <f t="array" ref="K7">IF(COUNTIF(K3:K6,MAX(K3:K6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(K3:K6),K3:K6,0)))</f>
+        <v>ResNet50 - Tentativa 2</v>
+      </c>
+      <c r="L7" s="5" t="str" cm="1">
+        <f t="array" ref="L7">IF(COUNTIF(L3:L6,MAX(L3:L6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(L3:L6),L3:L6,0)))</f>
         <v>-</v>
       </c>
-      <c r="L7" s="15" t="str" cm="1">
-        <f t="array" ref="L7">IF(COUNTIF(L3:L6,MAX(L3:L6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(L3:L6),L3:L6,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
-      </c>
-      <c r="M7" s="15" t="str" cm="1">
+      <c r="M7" s="5" t="str" cm="1">
         <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="N7" s="15" t="str" cm="1">
+      <c r="N7" s="5" t="str" cm="1">
         <f t="array" ref="N7">IF(COUNTIF(N3:N6,MAX(N3:N6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(N3:N6),N3:N6,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="O7" s="15" t="str" cm="1">
+        <v>ResNet50 - Tentativa 2</v>
+      </c>
+      <c r="O7" s="5" t="str" cm="1">
         <f t="array" ref="O7">IF(COUNTIF(O3:O6,MAX(O3:O6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(O3:O6),O3:O6,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="P7" s="16" t="str" cm="1">
+      <c r="P7" s="6" t="str" cm="1">
         <f t="array" ref="P7">INDEX(D7:O7,MODE(MATCH(D7:N7,D7:N7,0)))</f>
-        <v>ResNet50 - Tentativa 1</v>
+        <v>Xception - Tentativa 1</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1103,7 +1114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="B3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1132,32 +1143,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="32" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="21" t="s">
         <v>26</v>
       </c>
       <c r="W1" t="s">
@@ -1165,7 +1176,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F2" s="37"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1208,266 +1219,266 @@
       <c r="T2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="32"/>
+      <c r="U2" s="21"/>
       <c r="W2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="37">
         <v>45.3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="37">
         <v>0.80369999999999997</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="37">
         <v>0.9698</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="37">
         <v>0.86980000000000002</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="37">
         <v>11.11</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="37">
         <v>0.96740000000000004</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="37">
         <v>10.38</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="37">
         <v>520</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="37">
         <v>7</v>
       </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="O3" s="37">
+        <v>2</v>
+      </c>
+      <c r="P3" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="37">
         <v>3</v>
       </c>
-      <c r="R3" s="3">
-        <v>2</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="R3" s="37">
+        <v>2</v>
+      </c>
+      <c r="S3" s="37">
         <v>0</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="37">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="30">
         <v>45.7</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="31">
         <v>0.74343121051788297</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="31">
         <v>0.97619509696960449</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="31">
         <v>0.87131780385971069</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="32">
         <v>13.8674259185791</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="31">
         <v>0.79718124866485596</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="32">
         <v>9.7732210159301758</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="39">
         <v>481</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="39">
         <v>6</v>
       </c>
-      <c r="O4" s="29">
-        <v>2</v>
-      </c>
-      <c r="P4" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="O4" s="39">
+        <v>2</v>
+      </c>
+      <c r="P4" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="30">
         <v>3</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="30">
         <v>3</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="30">
         <v>0</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="30">
         <v>0</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="37">
         <v>54.81</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="41">
         <v>0.84544050693511896</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="41">
         <v>0.81865686178207397</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="41">
         <v>0.85271316766738892</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="42">
         <v>9.3030242919921804</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="42">
         <v>13.698649406433111</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="42">
         <v>10.42210102081299</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="43">
         <v>547</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="43">
         <v>4</v>
       </c>
-      <c r="O5" s="28">
-        <v>2</v>
-      </c>
-      <c r="P5" s="28">
+      <c r="O5" s="43">
+        <v>2</v>
+      </c>
+      <c r="P5" s="43">
         <v>3</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="37">
         <v>3</v>
       </c>
-      <c r="R5" s="3">
-        <v>2</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="R5" s="37">
+        <v>2</v>
+      </c>
+      <c r="S5" s="37">
         <v>1</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="37">
         <v>1</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34"/>
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="37">
         <v>58.41</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="41">
         <v>0.83771252632141102</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="41">
         <v>0.82465648651123047</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="41">
         <v>0.86046510934829712</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="42">
         <v>9.0306262969970703</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="42">
         <v>11.478946685791019</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="42">
         <v>11.088134765625</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="43">
         <v>542</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="43">
         <v>5</v>
       </c>
-      <c r="O6" s="28">
-        <v>2</v>
-      </c>
-      <c r="P6" s="28">
+      <c r="O6" s="43">
+        <v>2</v>
+      </c>
+      <c r="P6" s="43">
         <v>3</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="37">
         <v>3</v>
       </c>
-      <c r="R6" s="3">
-        <v>2</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="R6" s="37">
+        <v>2</v>
+      </c>
+      <c r="S6" s="37">
         <v>1</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="37">
         <v>1</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1485,72 +1496,72 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="15" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="15" t="str" cm="1">
+    <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="5" t="str" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="G8" s="15" t="str" cm="1">
+      <c r="G8" s="5" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="H8" s="15" t="str" cm="1">
+      <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="I8" s="15" t="str" cm="1">
+      <c r="I8" s="5" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="J8" s="15" t="str" cm="1">
+      <c r="J8" s="5" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
         <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
-      <c r="K8" s="15" t="str" cm="1">
+      <c r="K8" s="5" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="L8" s="15" t="str" cm="1">
+      <c r="L8" s="5" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="M8" s="15" t="str" cm="1">
+      <c r="M8" s="5" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="N8" s="15" t="str" cm="1">
+      <c r="N8" s="5" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="O8" s="15" t="str" cm="1">
+      <c r="O8" s="5" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
         <v>-</v>
       </c>
-      <c r="P8" s="15" t="str" cm="1">
+      <c r="P8" s="5" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Q8" s="15" t="str" cm="1">
+      <c r="Q8" s="5" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
         <v>-</v>
       </c>
-      <c r="R8" s="15" t="str" cm="1">
+      <c r="R8" s="5" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="S8" s="15" t="str" cm="1">
+      <c r="S8" s="5" t="str" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
         <v>-</v>
       </c>
-      <c r="T8" s="15" t="str" cm="1">
+      <c r="T8" s="5" t="str" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
         <v>-</v>
       </c>
-      <c r="U8" s="15" t="str" cm="1">
+      <c r="U8" s="5" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="V8" s="16" t="str" cm="1">
+      <c r="V8" s="6" t="str" cm="1">
         <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:T8,F8:T8,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
@@ -1578,16 +1589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.36328125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -1613,36 +1624,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="38" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="36" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
@@ -1650,7 +1661,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F2" s="37"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1705,413 +1716,413 @@
       <c r="X2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="37"/>
+      <c r="Y2" s="26"/>
       <c r="AA2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="37">
         <v>53.14</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="41">
         <v>0.78018575906753496</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="41">
         <v>0.98119062185287476</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="41">
         <v>0.80590063333511353</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="42">
         <v>15.499626159667899</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="41">
         <v>0.40975356101989752</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="42">
         <v>13.315666198730471</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="43">
         <v>503</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="43">
         <v>8</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="43">
         <v>0</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="43">
         <v>3</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="43">
         <v>12</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="43">
         <v>0</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="43">
         <v>5</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="43">
         <v>13</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="37">
         <v>10</v>
       </c>
-      <c r="V3" s="3">
-        <v>2</v>
-      </c>
-      <c r="W3" s="3">
-        <v>2</v>
-      </c>
-      <c r="X3" s="3">
+      <c r="V3" s="37">
+        <v>2</v>
+      </c>
+      <c r="W3" s="37">
+        <v>2</v>
+      </c>
+      <c r="X3" s="37">
         <v>1</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="37">
         <v>3</v>
       </c>
-      <c r="AA3" s="30" t="s">
+      <c r="AA3" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="1:27" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="37">
         <v>54.81</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="41">
         <v>0.78482973575591997</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="41">
         <v>0.97459763288497925</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="41">
         <v>0.8090062141418457</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="42">
         <v>16.450542449951101</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="41">
         <v>0.55339562892913818</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="42">
         <v>15.13919162750244</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="43">
         <v>506</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="43">
         <v>8</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="43">
         <v>0</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="43">
         <v>4</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="43">
         <v>8</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="43">
         <v>0</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="43">
         <v>6</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="43">
         <v>11</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="37">
         <v>10</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="37">
         <v>1</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="37">
         <v>1</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="37">
         <v>1</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="1:27" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="37">
         <v>46.59</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="41">
         <v>0.79256963729858398</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="41">
         <v>0.98409926891326904</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="41">
         <v>0.81055903434753418</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="42">
         <v>15.1154222488403</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="41">
         <v>0.28702113032340998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="42">
         <v>13.91117095947266</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="43">
         <v>512</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="43">
         <v>11</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="43">
         <v>0</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="43">
         <v>3</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="43">
         <v>9</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="43">
         <v>0</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="43">
         <v>5</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="43">
         <v>8</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="37">
         <v>10</v>
       </c>
-      <c r="V5" s="3">
-        <v>2</v>
-      </c>
-      <c r="W5" s="3">
-        <v>2</v>
-      </c>
-      <c r="X5" s="3">
+      <c r="V5" s="37">
+        <v>2</v>
+      </c>
+      <c r="W5" s="37">
+        <v>2</v>
+      </c>
+      <c r="X5" s="37">
         <v>1</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="37">
         <v>48.64</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="41">
         <v>0.67027860879898005</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="41">
         <v>0.74558854103088379</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="41">
         <v>0.67701864242553711</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="42">
         <v>22.851518630981399</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="42">
         <v>14.361519813537599</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="42">
         <v>16.079257965087891</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="43">
         <v>432</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="43">
         <v>10</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="43">
         <v>0</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="43">
         <v>3</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="43">
         <v>7</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="43">
         <v>0</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="43">
         <v>4</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="43">
         <v>9</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="37">
         <v>8</v>
       </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="V6" s="37">
+        <v>2</v>
+      </c>
+      <c r="W6" s="37">
         <v>1</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="37">
         <v>0</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" spans="1:27" s="22" customFormat="1" ht="76" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="22" t="str" cm="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" s="12" customFormat="1" ht="76" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="12" t="str" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="G8" s="22" t="str" cm="1">
+      <c r="G8" s="12" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="H8" s="22" t="str" cm="1">
+      <c r="H8" s="12" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="I8" s="22" t="str" cm="1">
+      <c r="I8" s="12" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="J8" s="22" t="str" cm="1">
+      <c r="J8" s="12" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="K8" s="22" t="str" cm="1">
+      <c r="K8" s="12" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="L8" s="22" t="str" cm="1">
+      <c r="L8" s="12" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="M8" s="22" t="str" cm="1">
+      <c r="M8" s="12" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="N8" s="22" t="str" cm="1">
+      <c r="N8" s="12" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
         <v>-</v>
       </c>
-      <c r="O8" s="22" t="str" cm="1">
+      <c r="O8" s="12" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MIN(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(O3:O7),O3:O7,0)))</f>
         <v>-</v>
       </c>
-      <c r="P8" s="22" t="str" cm="1">
+      <c r="P8" s="12" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MIN(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(P3:P7),P3:P7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Q8" s="22" t="str" cm="1">
+      <c r="Q8" s="12" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MIN(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(Q3:Q7),Q3:Q7,0)))</f>
         <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
-      <c r="R8" s="22" t="str" cm="1">
+      <c r="R8" s="12" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
         <v>-</v>
       </c>
-      <c r="S8" s="22" t="str" cm="1">
+      <c r="S8" s="12" t="str" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do zero)</v>
       </c>
-      <c r="T8" s="22" t="str" cm="1">
+      <c r="T8" s="12" t="str" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="U8" s="22" t="str" cm="1">
+      <c r="U8" s="12" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
         <v>-</v>
       </c>
-      <c r="V8" s="22" t="str" cm="1">
+      <c r="V8" s="12" t="str" cm="1">
         <f t="array" ref="V8">IF(COUNTIF(V3:V7,MAX(V3:V7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(V3:V7),V3:V7,0)))</f>
         <v>-</v>
       </c>
-      <c r="W8" s="22" t="str" cm="1">
+      <c r="W8" s="12" t="str" cm="1">
         <f t="array" ref="W8">IF(COUNTIF(W3:W7,MAX(W3:W7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(W3:W7),W3:W7,0)))</f>
         <v>-</v>
       </c>
-      <c r="X8" s="22" t="str" cm="1">
+      <c r="X8" s="12" t="str" cm="1">
         <f t="array" ref="X8">IF(COUNTIF(X3:X7,MAX(X3:X7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(X3:X7),X3:X7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Y8" s="22" t="str" cm="1">
+      <c r="Y8" s="12" t="str" cm="1">
         <f t="array" ref="Y8">IF(COUNTIF(Y3:Y7,MAX(Y3:Y7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Y3:Y7),Y3:Y7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Z8" s="23" t="str" cm="1">
+      <c r="Z8" s="13" t="str" cm="1">
         <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:X8,F8:X8,0)))</f>
         <v>-</v>
       </c>

--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C703492D-D7A4-48DC-A329-1DA6102E252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E1486-488B-4DA9-9FD8-A17BF7268389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>Accuracy</t>
   </si>
@@ -164,7 +164,7 @@
     <t>Métricas superiores ou iguais a 0,9</t>
   </si>
   <si>
-    <t>ROC superiores ou iguais a 0,90</t>
+    <t>AUC superior ou igual a 0,9</t>
   </si>
 </sst>
 </file>
@@ -227,18 +227,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -331,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,82 +404,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,7 +816,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,7 +830,7 @@
     <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6328125" customWidth="1"/>
     <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -930,6 +921,9 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
@@ -940,40 +934,40 @@
         <v>17</v>
       </c>
       <c r="D4" s="30">
-        <v>46.53</v>
+        <v>56.77</v>
       </c>
       <c r="E4" s="31">
-        <v>0.92581140995025601</v>
+        <v>0.95981454849243097</v>
       </c>
       <c r="F4" s="31">
-        <v>0.95335787534713745</v>
+        <v>0.97367912530899048</v>
       </c>
       <c r="G4" s="31">
-        <v>0.94573640823364258</v>
-      </c>
-      <c r="H4" s="32">
-        <v>3.29969930648803</v>
-      </c>
-      <c r="I4" s="32">
-        <v>2.249397754669189</v>
-      </c>
-      <c r="J4" s="32">
-        <v>2.498977899551392</v>
+        <v>0.9596899151802063</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0.13870543241500799</v>
+      </c>
+      <c r="I4" s="31">
+        <v>7.9352341592311859E-2</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0.1194941774010658</v>
       </c>
       <c r="K4" s="30">
         <v>3</v>
       </c>
       <c r="L4" s="30">
+        <v>2</v>
+      </c>
+      <c r="M4" s="30">
         <v>1</v>
-      </c>
-      <c r="M4" s="30">
-        <v>2</v>
       </c>
       <c r="N4" s="30">
         <v>1</v>
       </c>
       <c r="O4" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -986,42 +980,18 @@
       <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30">
-        <v>43.22</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0.64605873823165805</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0.97807574272155762</v>
-      </c>
-      <c r="G5" s="31">
-        <v>0.94728684425354004</v>
-      </c>
-      <c r="H5" s="32">
-        <v>1.7580696344375599</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0.90981227159500122</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0.44961240887641912</v>
-      </c>
-      <c r="K5" s="30">
-        <v>1</v>
-      </c>
-      <c r="L5" s="30">
-        <v>1</v>
-      </c>
-      <c r="M5" s="30">
-        <v>0</v>
-      </c>
-      <c r="N5" s="30">
-        <v>0</v>
-      </c>
-      <c r="O5" s="30">
-        <v>0</v>
-      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
@@ -1042,7 +1012,7 @@
     <row r="7" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="D7" s="5" t="str" cm="1">
         <f t="array" ref="D7">IF(COUNTIF(D3:D6,MIN(D3:D6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(D3:D6),D3:D6,0)))</f>
-        <v>Xception - Tentativa 1</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="E7" s="5" t="str" cm="1">
         <f t="array" ref="E7">IF(COUNTIF(E3:E6,MAX(E3:E6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(E3:E6),E3:E6,0)))</f>
@@ -1050,23 +1020,23 @@
       </c>
       <c r="F7" s="5" t="str" cm="1">
         <f t="array" ref="F7">IF(COUNTIF(F3:F6,MAX(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(F3:F6),F3:F6,0)))</f>
-        <v>Xception - Tentativa 1</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="G7" s="5" t="str" cm="1">
         <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
-        <v>Xception - Tentativa 1</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="H7" s="5" t="str" cm="1">
         <f t="array" ref="H7">IF(COUNTIF(H3:H6,MIN(H3:H6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(H3:H6),H3:H6,0)))</f>
-        <v>Xception - Tentativa 1</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="I7" s="5" t="str" cm="1">
         <f t="array" ref="I7">IF(COUNTIF(I3:I6,MIN(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(I3:I6),I3:I6,0)))</f>
-        <v>Xception - Tentativa 1</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="J7" s="5" t="str" cm="1">
         <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
-        <v>Xception - Tentativa 1</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="K7" s="5" t="str" cm="1">
         <f t="array" ref="K7">IF(COUNTIF(K3:K6,MAX(K3:K6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(K3:K6),K3:K6,0)))</f>
@@ -1074,7 +1044,7 @@
       </c>
       <c r="L7" s="5" t="str" cm="1">
         <f t="array" ref="L7">IF(COUNTIF(L3:L6,MAX(L3:L6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(L3:L6),L3:L6,0)))</f>
-        <v>-</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="M7" s="5" t="str" cm="1">
         <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
@@ -1090,7 +1060,7 @@
       </c>
       <c r="P7" s="6" t="str" cm="1">
         <f t="array" ref="P7">INDEX(D7:O7,MODE(MATCH(D7:N7,D7:N7,0)))</f>
-        <v>Xception - Tentativa 1</v>
+        <v>ResNet50 - Tentativa 2</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1114,7 +1084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="A3:XFD6"/>
+      <selection pane="topRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,53 +1210,24 @@
       <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37">
-        <v>45.3</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0.80369999999999997</v>
-      </c>
-      <c r="H3" s="37">
-        <v>0.9698</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="J3" s="37">
-        <v>11.11</v>
-      </c>
-      <c r="K3" s="37">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="L3" s="37">
-        <v>10.38</v>
-      </c>
-      <c r="M3" s="37">
-        <v>520</v>
-      </c>
-      <c r="N3" s="37">
-        <v>7</v>
-      </c>
-      <c r="O3" s="37">
-        <v>2</v>
-      </c>
-      <c r="P3" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="37">
-        <v>3</v>
-      </c>
-      <c r="R3" s="37">
-        <v>2</v>
-      </c>
-      <c r="S3" s="37">
-        <v>0</v>
-      </c>
-      <c r="T3" s="37">
-        <v>0</v>
-      </c>
-      <c r="U3" s="37">
-        <v>1</v>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="W3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.35">
@@ -1301,54 +1242,22 @@
       <c r="E4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="30">
-        <v>45.7</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0.74343121051788297</v>
-      </c>
-      <c r="H4" s="31">
-        <v>0.97619509696960449</v>
-      </c>
-      <c r="I4" s="31">
-        <v>0.87131780385971069</v>
-      </c>
-      <c r="J4" s="32">
-        <v>13.8674259185791</v>
-      </c>
-      <c r="K4" s="31">
-        <v>0.79718124866485596</v>
-      </c>
-      <c r="L4" s="32">
-        <v>9.7732210159301758</v>
-      </c>
-      <c r="M4" s="39">
-        <v>481</v>
-      </c>
-      <c r="N4" s="39">
-        <v>6</v>
-      </c>
-      <c r="O4" s="39">
-        <v>2</v>
-      </c>
-      <c r="P4" s="39">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>3</v>
-      </c>
-      <c r="R4" s="30">
-        <v>3</v>
-      </c>
-      <c r="S4" s="30">
-        <v>0</v>
-      </c>
-      <c r="T4" s="30">
-        <v>0</v>
-      </c>
-      <c r="U4" s="30">
-        <v>0</v>
-      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
@@ -1364,54 +1273,22 @@
       <c r="E5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37">
-        <v>54.81</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.84544050693511896</v>
-      </c>
-      <c r="H5" s="41">
-        <v>0.81865686178207397</v>
-      </c>
-      <c r="I5" s="41">
-        <v>0.85271316766738892</v>
-      </c>
-      <c r="J5" s="42">
-        <v>9.3030242919921804</v>
-      </c>
-      <c r="K5" s="42">
-        <v>13.698649406433111</v>
-      </c>
-      <c r="L5" s="42">
-        <v>10.42210102081299</v>
-      </c>
-      <c r="M5" s="43">
-        <v>547</v>
-      </c>
-      <c r="N5" s="43">
-        <v>4</v>
-      </c>
-      <c r="O5" s="43">
-        <v>2</v>
-      </c>
-      <c r="P5" s="43">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>3</v>
-      </c>
-      <c r="R5" s="37">
-        <v>2</v>
-      </c>
-      <c r="S5" s="37">
-        <v>1</v>
-      </c>
-      <c r="T5" s="37">
-        <v>1</v>
-      </c>
-      <c r="U5" s="37">
-        <v>3</v>
-      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
     </row>
     <row r="6" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
@@ -1425,54 +1302,22 @@
       <c r="E6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="37">
-        <v>58.41</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0.83771252632141102</v>
-      </c>
-      <c r="H6" s="41">
-        <v>0.82465648651123047</v>
-      </c>
-      <c r="I6" s="41">
-        <v>0.86046510934829712</v>
-      </c>
-      <c r="J6" s="42">
-        <v>9.0306262969970703</v>
-      </c>
-      <c r="K6" s="42">
-        <v>11.478946685791019</v>
-      </c>
-      <c r="L6" s="42">
-        <v>11.088134765625</v>
-      </c>
-      <c r="M6" s="43">
-        <v>542</v>
-      </c>
-      <c r="N6" s="43">
-        <v>5</v>
-      </c>
-      <c r="O6" s="43">
-        <v>2</v>
-      </c>
-      <c r="P6" s="43">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="37">
-        <v>3</v>
-      </c>
-      <c r="R6" s="37">
-        <v>2</v>
-      </c>
-      <c r="S6" s="37">
-        <v>1</v>
-      </c>
-      <c r="T6" s="37">
-        <v>1</v>
-      </c>
-      <c r="U6" s="37">
-        <v>1</v>
-      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1497,73 +1342,73 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="5" t="str" cm="1">
+      <c r="F8" s="5" t="e" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="G8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="5" t="e" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
-      </c>
-      <c r="H8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="5" t="e" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
-      </c>
-      <c r="I8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="5" t="e" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
-      </c>
-      <c r="J8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="5" t="e" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
-      </c>
-      <c r="K8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="5" t="e" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
-      </c>
-      <c r="L8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="5" t="e" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
-      </c>
-      <c r="M8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="5" t="e" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
-      </c>
-      <c r="N8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="5" t="e" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
-      </c>
-      <c r="O8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="5" t="e" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="P8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="5" t="e" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="Q8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="5" t="e" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="R8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="5" t="e" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
-      </c>
-      <c r="S8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="5" t="e" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="T8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="5" t="e" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="U8" s="5" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="U8" s="5" t="e" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
-      </c>
-      <c r="V8" s="6" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" s="6" t="e" cm="1">
         <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:T8,F8:T8,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1589,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1721,7 +1566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>15</v>
       </c>
@@ -1737,67 +1582,27 @@
       <c r="E3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37">
-        <v>53.14</v>
-      </c>
-      <c r="G3" s="41">
-        <v>0.78018575906753496</v>
-      </c>
-      <c r="H3" s="41">
-        <v>0.98119062185287476</v>
-      </c>
-      <c r="I3" s="41">
-        <v>0.80590063333511353</v>
-      </c>
-      <c r="J3" s="42">
-        <v>15.499626159667899</v>
-      </c>
-      <c r="K3" s="41">
-        <v>0.40975356101989752</v>
-      </c>
-      <c r="L3" s="42">
-        <v>13.315666198730471</v>
-      </c>
-      <c r="M3" s="43">
-        <v>503</v>
-      </c>
-      <c r="N3" s="43">
-        <v>8</v>
-      </c>
-      <c r="O3" s="43">
-        <v>0</v>
-      </c>
-      <c r="P3" s="43">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="43">
-        <v>12</v>
-      </c>
-      <c r="R3" s="43">
-        <v>0</v>
-      </c>
-      <c r="S3" s="43">
-        <v>5</v>
-      </c>
-      <c r="T3" s="43">
-        <v>13</v>
-      </c>
-      <c r="U3" s="37">
-        <v>10</v>
-      </c>
-      <c r="V3" s="37">
-        <v>2</v>
-      </c>
-      <c r="W3" s="37">
-        <v>2</v>
-      </c>
-      <c r="X3" s="37">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="50" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="AA3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1810,69 +1615,29 @@
       <c r="D4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="37">
-        <v>54.81</v>
-      </c>
-      <c r="G4" s="41">
-        <v>0.78482973575591997</v>
-      </c>
-      <c r="H4" s="41">
-        <v>0.97459763288497925</v>
-      </c>
-      <c r="I4" s="41">
-        <v>0.8090062141418457</v>
-      </c>
-      <c r="J4" s="42">
-        <v>16.450542449951101</v>
-      </c>
-      <c r="K4" s="41">
-        <v>0.55339562892913818</v>
-      </c>
-      <c r="L4" s="42">
-        <v>15.13919162750244</v>
-      </c>
-      <c r="M4" s="43">
-        <v>506</v>
-      </c>
-      <c r="N4" s="43">
-        <v>8</v>
-      </c>
-      <c r="O4" s="43">
-        <v>0</v>
-      </c>
-      <c r="P4" s="43">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>8</v>
-      </c>
-      <c r="R4" s="43">
-        <v>0</v>
-      </c>
-      <c r="S4" s="43">
-        <v>6</v>
-      </c>
-      <c r="T4" s="43">
-        <v>11</v>
-      </c>
-      <c r="U4" s="37">
-        <v>10</v>
-      </c>
-      <c r="V4" s="37">
-        <v>1</v>
-      </c>
-      <c r="W4" s="37">
-        <v>1</v>
-      </c>
-      <c r="X4" s="37">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="37">
-        <v>3</v>
-      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="1:27" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -1883,142 +1648,62 @@
       <c r="D5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="37">
-        <v>46.59</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.79256963729858398</v>
-      </c>
-      <c r="H5" s="41">
-        <v>0.98409926891326904</v>
-      </c>
-      <c r="I5" s="41">
-        <v>0.81055903434753418</v>
-      </c>
-      <c r="J5" s="42">
-        <v>15.1154222488403</v>
-      </c>
-      <c r="K5" s="41">
-        <v>0.28702113032340998</v>
-      </c>
-      <c r="L5" s="42">
-        <v>13.91117095947266</v>
-      </c>
-      <c r="M5" s="43">
-        <v>512</v>
-      </c>
-      <c r="N5" s="43">
-        <v>11</v>
-      </c>
-      <c r="O5" s="43">
-        <v>0</v>
-      </c>
-      <c r="P5" s="43">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>9</v>
-      </c>
-      <c r="R5" s="43">
-        <v>0</v>
-      </c>
-      <c r="S5" s="43">
-        <v>5</v>
-      </c>
-      <c r="T5" s="43">
-        <v>8</v>
-      </c>
-      <c r="U5" s="37">
-        <v>10</v>
-      </c>
-      <c r="V5" s="37">
-        <v>2</v>
-      </c>
-      <c r="W5" s="37">
-        <v>2</v>
-      </c>
-      <c r="X5" s="37">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="37">
-        <v>3</v>
-      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="37">
-        <v>48.64</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0.67027860879898005</v>
-      </c>
-      <c r="H6" s="41">
-        <v>0.74558854103088379</v>
-      </c>
-      <c r="I6" s="41">
-        <v>0.67701864242553711</v>
-      </c>
-      <c r="J6" s="42">
-        <v>22.851518630981399</v>
-      </c>
-      <c r="K6" s="42">
-        <v>14.361519813537599</v>
-      </c>
-      <c r="L6" s="42">
-        <v>16.079257965087891</v>
-      </c>
-      <c r="M6" s="43">
-        <v>432</v>
-      </c>
-      <c r="N6" s="43">
-        <v>10</v>
-      </c>
-      <c r="O6" s="43">
-        <v>0</v>
-      </c>
-      <c r="P6" s="43">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>7</v>
-      </c>
-      <c r="R6" s="43">
-        <v>0</v>
-      </c>
-      <c r="S6" s="43">
-        <v>4</v>
-      </c>
-      <c r="T6" s="43">
-        <v>9</v>
-      </c>
-      <c r="U6" s="37">
-        <v>8</v>
-      </c>
-      <c r="V6" s="37">
-        <v>2</v>
-      </c>
-      <c r="W6" s="37">
-        <v>1</v>
-      </c>
-      <c r="X6" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="37">
-        <v>3</v>
-      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2042,89 +1727,89 @@
     <row r="8" spans="1:27" s="12" customFormat="1" ht="76" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="F8" s="12" t="str" cm="1">
+      <c r="F8" s="12" t="e" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
-      </c>
-      <c r="G8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="12" t="e" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
-      </c>
-      <c r="H8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="12" t="e" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
-      </c>
-      <c r="I8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="12" t="e" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
-      </c>
-      <c r="J8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="12" t="e" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
-      </c>
-      <c r="K8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="12" t="e" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
-      </c>
-      <c r="L8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="12" t="e" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="M8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="12" t="e" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
-      </c>
-      <c r="N8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="12" t="e" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="O8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="12" t="e" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MIN(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(O3:O7),O3:O7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="P8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="12" t="e" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MIN(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(P3:P7),P3:P7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="Q8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="12" t="e" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MIN(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(Q3:Q7),Q3:Q7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
-      </c>
-      <c r="R8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="12" t="e" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="S8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="12" t="e" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do zero)</v>
-      </c>
-      <c r="T8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="12" t="e" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="U8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="U8" s="12" t="e" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="V8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" s="12" t="e" cm="1">
         <f t="array" ref="V8">IF(COUNTIF(V3:V7,MAX(V3:V7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(V3:V7),V3:V7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="W8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="W8" s="12" t="e" cm="1">
         <f t="array" ref="W8">IF(COUNTIF(W3:W7,MAX(W3:W7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(W3:W7),W3:W7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="X8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="X8" s="12" t="e" cm="1">
         <f t="array" ref="X8">IF(COUNTIF(X3:X7,MAX(X3:X7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(X3:X7),X3:X7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="Y8" s="12" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" s="12" t="e" cm="1">
         <f t="array" ref="Y8">IF(COUNTIF(Y3:Y7,MAX(Y3:Y7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Y3:Y7),Y3:Y7,0)))</f>
-        <v>-</v>
-      </c>
-      <c r="Z8" s="13" t="str" cm="1">
+        <v>#N/A</v>
+      </c>
+      <c r="Z8" s="13" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:X8,F8:X8,0)))</f>
-        <v>-</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E1486-488B-4DA9-9FD8-A17BF7268389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8833D-40C3-4DF6-A562-77319F59B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</t>
   </si>
   <si>
-    <t>Com Tentativa 1 - Material + Ano (Do zero)</t>
-  </si>
-  <si>
     <t>ROC</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>AUC superior ou igual a 0,9</t>
+  </si>
+  <si>
+    <t>Com Tentativa 1 - Material + Ano (Do Zero)</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +380,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,80 +441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948D5B6-6FD1-4CEE-888B-32B16A089BB5}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +790,9 @@
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6328125" customWidth="1"/>
@@ -835,27 +802,27 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="2"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="27" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="21" t="s">
-        <v>26</v>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
@@ -863,7 +830,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="26"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
@@ -894,13 +861,13 @@
       <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="34"/>
       <c r="Q2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -909,89 +876,111 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="D3" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0.95826894044876099</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.99922585487365723</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.95813953876495361</v>
+      </c>
+      <c r="H3" s="27">
+        <v>3.60284996032714</v>
+      </c>
+      <c r="I3" s="26">
+        <v>5.7292762212455273E-3</v>
+      </c>
+      <c r="J3" s="27">
+        <v>1.8943938016891479</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="22">
         <v>56.77</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="23">
         <v>0.95981454849243097</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="23">
         <v>0.97367912530899048</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="23">
         <v>0.9596899151802063</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="23">
         <v>0.13870543241500799</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="23">
         <v>7.9352341592311859E-2</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="23">
         <v>0.1194941774010658</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="22">
         <v>3</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="22">
         <v>2</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="22">
         <v>1</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="22">
         <v>1</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
@@ -1012,7 +1001,7 @@
     <row r="7" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="D7" s="5" t="str" cm="1">
         <f t="array" ref="D7">IF(COUNTIF(D3:D6,MIN(D3:D6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(D3:D6),D3:D6,0)))</f>
-        <v>ResNet50 - Tentativa 2</v>
+        <v>ResNet50 - Tentativa 1</v>
       </c>
       <c r="E7" s="5" t="str" cm="1">
         <f t="array" ref="E7">IF(COUNTIF(E3:E6,MAX(E3:E6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(E3:E6),E3:E6,0)))</f>
@@ -1020,7 +1009,7 @@
       </c>
       <c r="F7" s="5" t="str" cm="1">
         <f t="array" ref="F7">IF(COUNTIF(F3:F6,MAX(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(F3:F6),F3:F6,0)))</f>
-        <v>ResNet50 - Tentativa 2</v>
+        <v>ResNet50 - Tentativa 1</v>
       </c>
       <c r="G7" s="5" t="str" cm="1">
         <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
@@ -1032,7 +1021,7 @@
       </c>
       <c r="I7" s="5" t="str" cm="1">
         <f t="array" ref="I7">IF(COUNTIF(I3:I6,MIN(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(I3:I6),I3:I6,0)))</f>
-        <v>ResNet50 - Tentativa 2</v>
+        <v>ResNet50 - Tentativa 1</v>
       </c>
       <c r="J7" s="5" t="str" cm="1">
         <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
@@ -1040,7 +1029,7 @@
       </c>
       <c r="K7" s="5" t="str" cm="1">
         <f t="array" ref="K7">IF(COUNTIF(K3:K6,MAX(K3:K6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(K3:K6),K3:K6,0)))</f>
-        <v>ResNet50 - Tentativa 2</v>
+        <v>-</v>
       </c>
       <c r="L7" s="5" t="str" cm="1">
         <f t="array" ref="L7">IF(COUNTIF(L3:L6,MAX(L3:L6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(L3:L6),L3:L6,0)))</f>
@@ -1048,18 +1037,18 @@
       </c>
       <c r="M7" s="5" t="str" cm="1">
         <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
-        <v>ResNet50 - Tentativa 2</v>
+        <v>-</v>
       </c>
       <c r="N7" s="5" t="str" cm="1">
         <f t="array" ref="N7">IF(COUNTIF(N3:N6,MAX(N3:N6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(N3:N6),N3:N6,0)))</f>
-        <v>ResNet50 - Tentativa 2</v>
+        <v>-</v>
       </c>
       <c r="O7" s="5" t="str" cm="1">
         <f t="array" ref="O7">IF(COUNTIF(O3:O6,MAX(O3:O6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(O3:O6),O3:O6,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
       <c r="P7" s="6" t="str" cm="1">
-        <f t="array" ref="P7">INDEX(D7:O7,MODE(MATCH(D7:N7,D7:N7,0)))</f>
+        <f t="array" ref="P7">INDEX(D7:O7,MODE(MATCH(D7:O7,D7:O7,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
     </row>
@@ -1082,9 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958D01A-1FD4-424E-90C2-02670CB55CFF}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W3" sqref="W3"/>
+      <selection pane="topRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,20 +1081,17 @@
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.08984375" customWidth="1"/>
     <col min="22" max="22" width="7.81640625" bestFit="1" customWidth="1"/>
@@ -1113,40 +1099,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="27" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="21" t="s">
-        <v>26</v>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F2" s="26"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1189,135 +1175,263 @@
       <c r="T2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="34"/>
       <c r="W2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
+      <c r="F3" s="3">
+        <v>53.78</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.88562595844268799</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.87071800231933594</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.87596899271011353</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0.40723124146461398</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0.43201828002929688</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0.44156357645988459</v>
+      </c>
+      <c r="M3" s="3">
+        <v>573</v>
+      </c>
+      <c r="N3" s="3">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>4</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3</v>
+      </c>
       <c r="W3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22">
+        <v>61.23</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.87789797782897905</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.96361523866653442</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.87441861629486084</v>
+      </c>
+      <c r="J4" s="24">
+        <v>10.602006912231399</v>
+      </c>
+      <c r="K4" s="24">
+        <v>1.056615352630615</v>
+      </c>
+      <c r="L4" s="24">
+        <v>10.918642044067379</v>
+      </c>
+      <c r="M4" s="25">
+        <v>568</v>
+      </c>
+      <c r="N4" s="25">
+        <v>6</v>
+      </c>
+      <c r="O4" s="25">
+        <v>2</v>
+      </c>
+      <c r="P4" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>3</v>
+      </c>
+      <c r="R4" s="22">
+        <v>3</v>
+      </c>
+      <c r="S4" s="22">
+        <v>1</v>
+      </c>
+      <c r="T4" s="22">
+        <v>1</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>61.96</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.87635236978530795</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.87613701820373535</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.86976742744445801</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.39954149723052901</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.40130078792572021</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.38770806789398188</v>
+      </c>
+      <c r="M5" s="28">
+        <v>567</v>
+      </c>
+      <c r="N5" s="28">
+        <v>6</v>
+      </c>
+      <c r="O5" s="28">
+        <v>2</v>
+      </c>
+      <c r="P5" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-    </row>
-    <row r="5" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-    </row>
-    <row r="6" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
+      <c r="F6" s="3">
+        <v>95.62</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.89180833101272505</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.88871687650680542</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.88992249965667725</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.48432782292366</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0.41999000310897833</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.45322072505950928</v>
+      </c>
+      <c r="M6" s="28">
+        <v>577</v>
+      </c>
+      <c r="N6" s="28">
+        <v>5</v>
+      </c>
+      <c r="O6" s="28">
+        <v>2</v>
+      </c>
+      <c r="P6" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1342,73 +1456,73 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="5" t="e" cm="1">
+      <c r="F8" s="5" t="str" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="G8" s="5" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+      </c>
+      <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
+      <c r="I8" s="5" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+      </c>
+      <c r="J8" s="5" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="K8" s="5" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="L8" s="5" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
+      </c>
+      <c r="M8" s="5" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+      </c>
+      <c r="N8" s="5" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+      </c>
+      <c r="O8" s="5" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="5" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="P8" s="5" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="5" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="Q8" s="5" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+      </c>
+      <c r="R8" s="5" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S8" s="5" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+      </c>
+      <c r="S8" s="5" t="str" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="5" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="T8" s="5" t="str" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U8" s="5" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="U8" s="5" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" s="6" t="e" cm="1">
-        <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:T8,F8:T8,0)))</f>
-        <v>#N/A</v>
+        <v>-</v>
+      </c>
+      <c r="V8" s="6" t="str" cm="1">
+        <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:U8,F8:U8,0)))</f>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
     </row>
   </sheetData>
@@ -1434,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,44 +1583,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="27" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="25" t="s">
-        <v>26</v>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F2" s="26"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1646,7 @@
         <v>22</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>23</v>
@@ -1541,13 +1655,13 @@
         <v>21</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>9</v>
@@ -1561,149 +1675,149 @@
       <c r="X2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="26"/>
+      <c r="Y2" s="39"/>
       <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="AA3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="E5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="AA3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-    </row>
-    <row r="5" spans="1:27" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-    </row>
-    <row r="6" spans="1:27" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -1808,7 +1922,7 @@
         <v>#N/A</v>
       </c>
       <c r="Z8" s="13" t="e" cm="1">
-        <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:X8,F8:X8,0)))</f>
+        <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:Y8,F8:Y8,0)))</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8833D-40C3-4DF6-A562-77319F59B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF93EEE-EC6D-4672-B9AD-10A94BE0149F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
     <sheet name="Material + Ano" sheetId="2" r:id="rId2"/>
-    <sheet name="Material + Ano + Estrutura" sheetId="3" r:id="rId3"/>
+    <sheet name="Material + Estrutura" sheetId="4" r:id="rId3"/>
+    <sheet name="Material + Ano + Estrutura" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
   <si>
     <t>Accuracy</t>
   </si>
@@ -165,6 +166,12 @@
   </si>
   <si>
     <t>Com Tentativa 1 - Material + Ano (Do Zero)</t>
+  </si>
+  <si>
+    <t>modelo frio</t>
+  </si>
+  <si>
+    <t>modelo quente</t>
   </si>
 </sst>
 </file>
@@ -778,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948D5B6-6FD1-4CEE-888B-32B16A089BB5}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,7 +916,9 @@
       <c r="N3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
       <c r="Q3" t="s">
         <v>33</v>
       </c>
@@ -923,25 +932,25 @@
         <v>17</v>
       </c>
       <c r="D4" s="22">
-        <v>56.77</v>
+        <v>53.07</v>
       </c>
       <c r="E4" s="23">
-        <v>0.95981454849243097</v>
+        <v>0.95672333240509</v>
       </c>
       <c r="F4" s="23">
-        <v>0.97367912530899048</v>
+        <v>0.97522741556167603</v>
       </c>
       <c r="G4" s="23">
         <v>0.9596899151802063</v>
       </c>
       <c r="H4" s="23">
-        <v>0.13870543241500799</v>
+        <v>0.19363838434219299</v>
       </c>
       <c r="I4" s="23">
-        <v>7.9352341592311859E-2</v>
+        <v>7.0987090468406677E-2</v>
       </c>
       <c r="J4" s="23">
-        <v>0.1194941774010658</v>
+        <v>0.12991207838058469</v>
       </c>
       <c r="K4" s="22">
         <v>3</v>
@@ -1005,7 +1014,7 @@
       </c>
       <c r="E7" s="5" t="str" cm="1">
         <f t="array" ref="E7">IF(COUNTIF(E3:E6,MAX(E3:E6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(E3:E6),E3:E6,0)))</f>
-        <v>ResNet50 - Tentativa 2</v>
+        <v>ResNet50 - Tentativa 1</v>
       </c>
       <c r="F7" s="5" t="str" cm="1">
         <f t="array" ref="F7">IF(COUNTIF(F3:F6,MAX(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(F3:F6),F3:F6,0)))</f>
@@ -1053,6 +1062,88 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="22">
+        <v>56.77</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.95981454849243097</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.97367912530899048</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.9596899151802063</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.13870543241500799</v>
+      </c>
+      <c r="I10" s="23">
+        <v>7.9352341592311859E-2</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.1194941774010658</v>
+      </c>
+      <c r="K10" s="22">
+        <v>3</v>
+      </c>
+      <c r="L10" s="22">
+        <v>2</v>
+      </c>
+      <c r="M10" s="22">
+        <v>1</v>
+      </c>
+      <c r="N10" s="22">
+        <v>1</v>
+      </c>
+      <c r="O10" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="22">
+        <v>210.47</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.94899535179138095</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.94987422227859497</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.94418603181838989</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.47598251700401301</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.16247047483921051</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0.226772665977478</v>
+      </c>
+      <c r="K11" s="22">
+        <v>3</v>
+      </c>
+      <c r="L11" s="22">
+        <v>1</v>
+      </c>
+      <c r="M11" s="22">
+        <v>1</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
@@ -1071,9 +1162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958D01A-1FD4-424E-90C2-02670CB55CFF}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U7" sqref="U7"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1197,28 +1288,28 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>53.78</v>
+        <v>55.7</v>
       </c>
       <c r="G3" s="26">
-        <v>0.88562595844268799</v>
+        <v>0.884080350399017</v>
       </c>
       <c r="H3" s="26">
-        <v>0.87071800231933594</v>
+        <v>0.86994385719299316</v>
       </c>
       <c r="I3" s="26">
-        <v>0.87596899271011353</v>
+        <v>0.86976742744445801</v>
       </c>
       <c r="J3" s="26">
-        <v>0.40723124146461398</v>
+        <v>0.43307203054428101</v>
       </c>
       <c r="K3" s="26">
-        <v>0.43201828002929688</v>
+        <v>0.4301837682723999</v>
       </c>
       <c r="L3" s="26">
-        <v>0.44156357645988459</v>
+        <v>0.47145718336105352</v>
       </c>
       <c r="M3" s="3">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N3" s="3">
         <v>6</v>
@@ -1233,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
@@ -1261,31 +1352,31 @@
         <v>26</v>
       </c>
       <c r="F4" s="22">
-        <v>61.23</v>
+        <v>46.52</v>
       </c>
       <c r="G4" s="23">
-        <v>0.87789797782897905</v>
+        <v>0.87171560525894098</v>
       </c>
       <c r="H4" s="23">
-        <v>0.96361523866653442</v>
+        <v>0.95297080278396606</v>
       </c>
       <c r="I4" s="23">
-        <v>0.87441861629486084</v>
+        <v>0.87751936912536621</v>
       </c>
       <c r="J4" s="24">
-        <v>10.602006912231399</v>
+        <v>10.4380187988281</v>
       </c>
       <c r="K4" s="24">
-        <v>1.056615352630615</v>
+        <v>1.6862820386886599</v>
       </c>
       <c r="L4" s="24">
-        <v>10.918642044067379</v>
+        <v>13.38776683807373</v>
       </c>
       <c r="M4" s="25">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N4" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" s="25">
         <v>2</v>
@@ -1306,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
@@ -1323,54 +1414,22 @@
       <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
-        <v>61.96</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0.87635236978530795</v>
-      </c>
-      <c r="H5" s="26">
-        <v>0.87613701820373535</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0.86976742744445801</v>
-      </c>
-      <c r="J5" s="26">
-        <v>0.39954149723052901</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0.40130078792572021</v>
-      </c>
-      <c r="L5" s="26">
-        <v>0.38770806789398188</v>
-      </c>
-      <c r="M5" s="28">
-        <v>567</v>
-      </c>
-      <c r="N5" s="28">
-        <v>6</v>
-      </c>
-      <c r="O5" s="28">
-        <v>2</v>
-      </c>
-      <c r="P5" s="28">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>4</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3">
-        <v>2</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="33"/>
@@ -1384,54 +1443,22 @@
       <c r="E6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3">
-        <v>95.62</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.89180833101272505</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0.88871687650680542</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0.88992249965667725</v>
-      </c>
-      <c r="J6" s="26">
-        <v>0.48432782292366</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0.41999000310897833</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0.45322072505950928</v>
-      </c>
-      <c r="M6" s="28">
-        <v>577</v>
-      </c>
-      <c r="N6" s="28">
-        <v>5</v>
-      </c>
-      <c r="O6" s="28">
-        <v>2</v>
-      </c>
-      <c r="P6" s="28">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>5</v>
-      </c>
-      <c r="R6" s="3">
-        <v>2</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
-        <v>3</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1458,11 +1485,11 @@
     <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="F8" s="5" t="str" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="G8" s="5" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
@@ -1470,27 +1497,27 @@
       </c>
       <c r="I8" s="5" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="J8" s="5" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="K8" s="5" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="L8" s="5" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="M8" s="5" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="N8" s="5" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="O8" s="5" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
@@ -1498,11 +1525,11 @@
       </c>
       <c r="P8" s="5" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
-        <v>-</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="Q8" s="5" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
-        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="R8" s="5" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
@@ -1518,11 +1545,11 @@
       </c>
       <c r="U8" s="5" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
-        <v>-</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
       <c r="V8" s="6" t="str" cm="1">
         <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:U8,F8:U8,0)))</f>
-        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
     </row>
   </sheetData>
@@ -1545,19 +1572,398 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1115E266-ACA4-4298-BBB5-A2C24B7DE1CC}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="46.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F2" s="39"/>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="34"/>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>55.84</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.80340558290481501</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.91138261556625366</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.82453417778015137</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0.57216721773147505</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0.26785281300544739</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0.52696508169174194</v>
+      </c>
+      <c r="M3" s="3">
+        <v>519</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="5" t="str" cm="1">
+        <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="G8" s="5" t="str" cm="1">
+        <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="H8" s="5" t="str" cm="1">
+        <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="I8" s="5" t="str" cm="1">
+        <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="J8" s="5" t="str" cm="1">
+        <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="K8" s="5" t="str" cm="1">
+        <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="L8" s="5" t="str" cm="1">
+        <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="M8" s="5" t="str" cm="1">
+        <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="N8" s="5" t="str" cm="1">
+        <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="O8" s="5" t="str" cm="1">
+        <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="P8" s="5" t="str" cm="1">
+        <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="Q8" s="5" t="str" cm="1">
+        <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="R8" s="5" t="str" cm="1">
+        <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="S8" s="5" t="str" cm="1">
+        <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="T8" s="5" t="str" cm="1">
+        <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="U8" s="5" t="str" cm="1">
+        <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="V8" s="6" t="str" cm="1">
+        <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:U8,F8:U8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="18" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="18" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.36328125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -1575,8 +1981,7 @@
     <col min="20" max="20" width="14.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.7265625" style="2"/>
     <col min="27" max="27" width="46.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="8.7265625" style="2"/>
@@ -1696,26 +2101,66 @@
       <c r="E3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="F3" s="3">
+        <v>56.07</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.81114548444747903</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.85262751579284668</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.81832295656204224</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0.79698371887206998</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0.47509241104125982</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0.6932978630065918</v>
+      </c>
+      <c r="M3" s="28">
+        <v>523</v>
+      </c>
+      <c r="N3" s="28">
+        <v>10</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+      <c r="P3" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>7</v>
+      </c>
+      <c r="R3" s="28">
+        <v>0</v>
+      </c>
+      <c r="S3" s="28">
+        <v>5</v>
+      </c>
+      <c r="T3" s="28">
+        <v>9</v>
+      </c>
+      <c r="U3" s="3">
+        <v>10</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>8</v>
+      </c>
       <c r="AA3" t="s">
         <v>33</v>
       </c>
@@ -1732,26 +2177,66 @@
       <c r="E4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="F4" s="3">
+        <v>52.29</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.80959755182266202</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.8551483154296875</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.81055903434753418</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0.80019670724868697</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0.47773274779319758</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.71425938606262207</v>
+      </c>
+      <c r="M4" s="28">
+        <v>521</v>
+      </c>
+      <c r="N4" s="28">
+        <v>8</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0</v>
+      </c>
+      <c r="P4" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>7</v>
+      </c>
+      <c r="R4" s="28">
+        <v>0</v>
+      </c>
+      <c r="S4" s="28">
+        <v>4</v>
+      </c>
+      <c r="T4" s="28">
+        <v>8</v>
+      </c>
+      <c r="U4" s="3">
+        <v>10</v>
+      </c>
+      <c r="V4" s="3">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -1841,89 +2326,89 @@
     <row r="8" spans="1:27" s="12" customFormat="1" ht="76" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="F8" s="12" t="e" cm="1">
+      <c r="F8" s="12" t="str" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
+      </c>
+      <c r="G8" s="12" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="H8" s="12" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
+      </c>
+      <c r="I8" s="12" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="J8" s="12" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="K8" s="12" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="L8" s="12" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="M8" s="12" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="N8" s="12" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
+      </c>
+      <c r="O8" s="12" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MIN(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(O3:O7),O3:O7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="12" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="P8" s="12" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MIN(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(P3:P7),P3:P7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="Q8" s="12" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MIN(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(Q3:Q7),Q3:Q7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="12" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="R8" s="12" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S8" s="12" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="S8" s="12" t="str" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="T8" s="12" t="str" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      </c>
+      <c r="U8" s="12" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" s="12" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="V8" s="12" t="str" cm="1">
         <f t="array" ref="V8">IF(COUNTIF(V3:V7,MAX(V3:V7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(V3:V7),V3:V7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W8" s="12" t="e" cm="1">
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
+      </c>
+      <c r="W8" s="12" t="str" cm="1">
         <f t="array" ref="W8">IF(COUNTIF(W3:W7,MAX(W3:W7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(W3:W7),W3:W7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X8" s="12" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="X8" s="12" t="str" cm="1">
         <f t="array" ref="X8">IF(COUNTIF(X3:X7,MAX(X3:X7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(X3:X7),X3:X7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" s="12" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="Y8" s="12" t="str" cm="1">
         <f t="array" ref="Y8">IF(COUNTIF(Y3:Y7,MAX(Y3:Y7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Y3:Y7),Y3:Y7,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" s="13" t="e" cm="1">
+        <v>-</v>
+      </c>
+      <c r="Z8" s="13" t="str" cm="1">
         <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:Y8,F8:Y8,0)))</f>
-        <v>#N/A</v>
+        <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF93EEE-EC6D-4672-B9AD-10A94BE0149F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F8278F-C257-421F-87E6-3DE078BA2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
   <si>
     <t>Accuracy</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>modelo quente</t>
+  </si>
+  <si>
+    <t>Com Tentativa 1 - Material + Estrutura (Do Zero)</t>
+  </si>
+  <si>
+    <t>Com Tentativa 1 - Material + Estrutura (Com Tentativa 1 - Material)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +234,13 @@
     <font>
       <b/>
       <sz val="7"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -332,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,9 +366,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,7 +396,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,9 +421,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -424,6 +430,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,9 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,26 +815,26 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C1" s="2"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="40" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="34" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="32" t="s">
         <v>25</v>
       </c>
       <c r="Q1" t="s">
@@ -837,7 +843,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
@@ -868,13 +874,13 @@
       <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="32"/>
       <c r="Q2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -886,22 +892,22 @@
       <c r="D3" s="3">
         <v>48.9</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>0.95826894044876099</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>0.99922585487365723</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>0.95813953876495361</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>3.60284996032714</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>5.7292762212455273E-3</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="25">
         <v>1.8943938016891479</v>
       </c>
       <c r="K3" s="3">
@@ -924,83 +930,83 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>53.07</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>0.95672333240509</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <v>0.97522741556167603</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>0.9596899151802063</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <v>0.19363838434219299</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>7.0987090468406677E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <v>0.12991207838058469</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>3</v>
       </c>
-      <c r="L4" s="22">
-        <v>2</v>
-      </c>
-      <c r="M4" s="22">
-        <v>1</v>
-      </c>
-      <c r="N4" s="22">
-        <v>1</v>
-      </c>
-      <c r="O4" s="22">
+      <c r="L4" s="20">
+        <v>2</v>
+      </c>
+      <c r="M4" s="20">
+        <v>1</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1</v>
+      </c>
+      <c r="O4" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="C5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1066,40 +1072,40 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>56.77</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>0.95981454849243097</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>0.97367912530899048</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>0.9596899151802063</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="21">
         <v>0.13870543241500799</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>7.9352341592311859E-2</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="21">
         <v>0.1194941774010658</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <v>3</v>
       </c>
-      <c r="L10" s="22">
-        <v>2</v>
-      </c>
-      <c r="M10" s="22">
-        <v>1</v>
-      </c>
-      <c r="N10" s="22">
-        <v>1</v>
-      </c>
-      <c r="O10" s="22">
+      <c r="L10" s="20">
+        <v>2</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1</v>
+      </c>
+      <c r="O10" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1107,40 +1113,40 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>210.47</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>0.94899535179138095</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>0.94987422227859497</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>0.94418603181838989</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="21">
         <v>0.47598251700401301</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <v>0.16247047483921051</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="21">
         <v>0.226772665977478</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="20">
         <v>3</v>
       </c>
-      <c r="L11" s="22">
-        <v>1</v>
-      </c>
-      <c r="M11" s="22">
-        <v>1</v>
-      </c>
-      <c r="N11" s="22">
-        <v>1</v>
-      </c>
-      <c r="O11" s="22">
+      <c r="L11" s="20">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1</v>
+      </c>
+      <c r="O11" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1190,32 +1196,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="40" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="34" t="s">
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="32" t="s">
         <v>25</v>
       </c>
       <c r="W1" t="s">
@@ -1223,7 +1229,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F2" s="39"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1266,46 +1272,46 @@
       <c r="T2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="32"/>
       <c r="W2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>55.7</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>0.884080350399017</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>0.86994385719299316</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>0.86976742744445801</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>0.43307203054428101</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>0.4301837682723999</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>0.47145718336105352</v>
       </c>
       <c r="M3" s="3">
@@ -1340,91 +1346,91 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>46.52</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>0.87171560525894098</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <v>0.95297080278396606</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>0.87751936912536621</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <v>10.4380187988281</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="22">
         <v>1.6862820386886599</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="22">
         <v>13.38776683807373</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="23">
         <v>564</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="23">
         <v>7</v>
       </c>
-      <c r="O4" s="25">
-        <v>2</v>
-      </c>
-      <c r="P4" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="22">
+      <c r="O4" s="23">
+        <v>2</v>
+      </c>
+      <c r="P4" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="20">
         <v>3</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="20">
         <v>3</v>
       </c>
-      <c r="S4" s="22">
-        <v>1</v>
-      </c>
-      <c r="T4" s="22">
-        <v>1</v>
-      </c>
-      <c r="U4" s="22">
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+      <c r="T4" s="20">
+        <v>1</v>
+      </c>
+      <c r="U4" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
+      <c r="A5" s="31"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1432,28 +1438,28 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
+      <c r="A6" s="31"/>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1461,10 +1467,10 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1575,9 +1581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1115E266-ACA4-4298-BBB5-A2C24B7DE1CC}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,32 +1610,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="40" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="34" t="s">
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="32" t="s">
         <v>25</v>
       </c>
       <c r="W1" t="s">
@@ -1637,7 +1643,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F2" s="39"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1680,46 +1686,46 @@
       <c r="T2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="32"/>
       <c r="W2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>55.84</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>0.80340558290481501</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>0.91138261556625366</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>0.82453417778015137</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>0.57216721773147505</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>0.26785281300544739</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>0.52696508169174194</v>
       </c>
       <c r="M3" s="3">
@@ -1754,59 +1760,91 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="F4" s="20">
+        <v>53.62</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.85603713989257801</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.9974791407585144</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.84782606363296509</v>
+      </c>
+      <c r="J4" s="22">
+        <v>8.9784631729125906</v>
+      </c>
+      <c r="K4" s="21">
+        <v>4.0199495851993561E-2</v>
+      </c>
+      <c r="L4" s="22">
+        <v>7.2506194114685059</v>
+      </c>
+      <c r="M4" s="23">
+        <v>553</v>
+      </c>
+      <c r="N4" s="23">
+        <v>9</v>
+      </c>
+      <c r="O4" s="23">
+        <v>8</v>
+      </c>
+      <c r="P4" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>5</v>
+      </c>
+      <c r="R4" s="20">
+        <v>0</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+      <c r="T4" s="20">
+        <v>1</v>
+      </c>
+      <c r="U4" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
+      <c r="A5" s="31"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1814,28 +1852,28 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
+      <c r="A6" s="31"/>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1843,10 +1881,10 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1867,19 +1905,19 @@
     <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="F8" s="5" t="str" cm="1">
         <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="G8" s="5" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="I8" s="5" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="J8" s="5" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
@@ -1887,7 +1925,7 @@
       </c>
       <c r="K8" s="5" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="L8" s="5" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
@@ -1895,23 +1933,23 @@
       </c>
       <c r="M8" s="5" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="N8" s="5" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="O8" s="5" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>-</v>
       </c>
       <c r="P8" s="5" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>-</v>
       </c>
       <c r="Q8" s="5" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
       <c r="R8" s="5" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
@@ -1919,11 +1957,11 @@
       </c>
       <c r="S8" s="5" t="str" cm="1">
         <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>-</v>
       </c>
       <c r="T8" s="5" t="str" cm="1">
         <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>-</v>
       </c>
       <c r="U8" s="5" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
@@ -1931,7 +1969,7 @@
       </c>
       <c r="V8" s="6" t="str" cm="1">
         <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:U8,F8:U8,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
     </row>
   </sheetData>
@@ -1947,482 +1985,582 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="18" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" style="18" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7265625" style="2"/>
-    <col min="27" max="27" width="46.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.90625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.1796875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="46.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F1" s="38" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="40" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="38" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="F2" s="39"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D2" s="37"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="37"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>57.54</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.80340558290481501</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0.85476052761077881</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0.81055903434753418</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0.81091165542602495</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.47718361020088201</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.71769535541534424</v>
+      </c>
+      <c r="K3" s="26">
+        <v>517</v>
+      </c>
+      <c r="L3" s="26">
+        <v>8</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
+        <v>3</v>
+      </c>
+      <c r="O3" s="26">
+        <v>6</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>4</v>
+      </c>
+      <c r="R3" s="26">
+        <v>10</v>
+      </c>
+      <c r="S3" s="3">
+        <v>10</v>
+      </c>
+      <c r="T3" s="3">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45.24</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.80340558290481501</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.85650569200515747</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.81211179494857788</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.81817501783370905</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.47528329491615301</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.70388239622116089</v>
+      </c>
+      <c r="K4" s="26">
+        <v>519</v>
+      </c>
+      <c r="L4" s="26">
+        <v>12</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
+        <v>2</v>
+      </c>
+      <c r="O4" s="26">
+        <v>7</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="R4" s="26">
+        <v>10</v>
+      </c>
+      <c r="S4" s="3">
+        <v>10</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>47.04</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.801857590675354</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.85669964551925659</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.81366461515426636</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.80864077806472701</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.47709423303604132</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0.70010066032409668</v>
+      </c>
+      <c r="K5" s="26">
+        <v>517</v>
+      </c>
+      <c r="L5" s="26">
+        <v>9</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+      <c r="N5" s="26">
+        <v>2</v>
+      </c>
+      <c r="O5" s="26">
+        <v>7</v>
+      </c>
+      <c r="P5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>5</v>
+      </c>
+      <c r="R5" s="26">
+        <v>9</v>
+      </c>
+      <c r="S5" s="3">
+        <v>10</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3">
+        <v>49.93</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.80959755182266202</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.85456663370132446</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.81987577676773071</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.79775148630142201</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.47325345873832703</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.69029319286346436</v>
+      </c>
+      <c r="K6" s="26">
+        <v>522</v>
+      </c>
+      <c r="L6" s="26">
+        <v>10</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>2</v>
+      </c>
+      <c r="O6" s="26">
+        <v>7</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="39"/>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="R6" s="26">
+        <v>10</v>
+      </c>
+      <c r="S6" s="3">
+        <v>10</v>
+      </c>
+      <c r="T6" s="3">
+        <v>2</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>56.07</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0.81114548444747903</v>
-      </c>
-      <c r="H3" s="26">
-        <v>0.85262751579284668</v>
-      </c>
-      <c r="I3" s="26">
-        <v>0.81832295656204224</v>
-      </c>
-      <c r="J3" s="26">
-        <v>0.79698371887206998</v>
-      </c>
-      <c r="K3" s="26">
-        <v>0.47509241104125982</v>
-      </c>
-      <c r="L3" s="26">
-        <v>0.6932978630065918</v>
-      </c>
-      <c r="M3" s="28">
-        <v>523</v>
-      </c>
-      <c r="N3" s="28">
-        <v>10</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0</v>
-      </c>
-      <c r="P3" s="28">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>7</v>
-      </c>
-      <c r="R3" s="28">
-        <v>0</v>
-      </c>
-      <c r="S3" s="28">
-        <v>5</v>
-      </c>
-      <c r="T3" s="28">
-        <v>9</v>
-      </c>
-      <c r="U3" s="3">
-        <v>10</v>
-      </c>
-      <c r="V3" s="3">
-        <v>2</v>
-      </c>
-      <c r="W3" s="3">
-        <v>2</v>
-      </c>
-      <c r="X3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3">
-        <v>52.29</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0.80959755182266202</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0.8551483154296875</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0.81055903434753418</v>
-      </c>
-      <c r="J4" s="26">
-        <v>0.80019670724868697</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0.47773274779319758</v>
-      </c>
-      <c r="L4" s="26">
-        <v>0.71425938606262207</v>
-      </c>
-      <c r="M4" s="28">
-        <v>521</v>
-      </c>
-      <c r="N4" s="28">
-        <v>8</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0</v>
-      </c>
-      <c r="P4" s="28">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="28">
-        <v>7</v>
-      </c>
-      <c r="R4" s="28">
-        <v>0</v>
-      </c>
-      <c r="S4" s="28">
-        <v>4</v>
-      </c>
-      <c r="T4" s="28">
-        <v>8</v>
-      </c>
-      <c r="U4" s="3">
-        <v>10</v>
-      </c>
-      <c r="V4" s="3">
-        <v>3</v>
-      </c>
-      <c r="W4" s="3">
-        <v>2</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" s="12" customFormat="1" ht="76" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="12" t="str" cm="1">
-        <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
+      <c r="B7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="11" t="str" cm="1">
+        <f t="array" ref="D9">IF(COUNTIF(D3:D8,MIN(D3:D8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(D3:D8),D3:D8,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
       </c>
-      <c r="G8" s="12" t="str" cm="1">
-        <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
+      <c r="E9" s="11" t="str" cm="1">
+        <f t="array" ref="E9">IF(COUNTIF(E3:E8,MAX(E3:E8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(E3:E8),E3:E8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
+      </c>
+      <c r="F9" s="11" t="str" cm="1">
+        <f t="array" ref="F9">IF(COUNTIF(F3:F8,MAX(F3:F8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(F3:F8),F3:F8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
+      </c>
+      <c r="G9" s="11" t="str" cm="1">
+        <f t="array" ref="G9">IF(COUNTIF(G3:G8,MAX(G3:G8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(G3:G8),G3:G8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
+      </c>
+      <c r="H9" s="11" t="str" cm="1">
+        <f t="array" ref="H9">IF(COUNTIF(H3:H8,MIN(H3:H8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(H3:H8),H3:H8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
+      </c>
+      <c r="I9" s="11" t="str" cm="1">
+        <f t="array" ref="I9">IF(COUNTIF(I3:I8,MIN(I3:I8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(I3:I8),I3:I8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
+      </c>
+      <c r="J9" s="11" t="str" cm="1">
+        <f t="array" ref="J9">IF(COUNTIF(J3:J8,MIN(J3:J8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(J3:J8),J3:J8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
+      </c>
+      <c r="K9" s="11" t="str" cm="1">
+        <f t="array" ref="K9">IF(COUNTIF(K3:K8,MAX(K3:K8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(K3:K8),K3:K8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
+      </c>
+      <c r="L9" s="11" t="str" cm="1">
+        <f t="array" ref="L9">IF(COUNTIF(L3:L8,MIN(L3:L8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(L3:L8),L3:L8,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="H8" s="12" t="str" cm="1">
-        <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
-      </c>
-      <c r="I8" s="12" t="str" cm="1">
-        <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
+      <c r="M9" s="11" t="str" cm="1">
+        <f t="array" ref="M9">IF(COUNTIF(M3:M8,MIN(M3:M8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(M3:M8),M3:M8,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="N9" s="11" t="str" cm="1">
+        <f t="array" ref="N9">IF(COUNTIF(N3:N8,MIN(N3:N8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(N3:N8),N3:N8,0)))</f>
+        <v>-</v>
+      </c>
+      <c r="O9" s="11" t="str" cm="1">
+        <f t="array" ref="O9">IF(COUNTIF(O3:O8,MIN(O3:O8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(O3:O8),O3:O8,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="J8" s="12" t="str" cm="1">
-        <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="K8" s="12" t="str" cm="1">
-        <f t="array" ref="K8">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="L8" s="12" t="str" cm="1">
-        <f t="array" ref="L8">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($A$3&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="M8" s="12" t="str" cm="1">
-        <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="N8" s="12" t="str" cm="1">
-        <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
-      </c>
-      <c r="O8" s="12" t="str" cm="1">
-        <f t="array" ref="O8">IF(COUNTIF(O3:O7,MIN(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(O3:O7),O3:O7,0)))</f>
+      <c r="P9" s="11" t="str" cm="1">
+        <f t="array" ref="P9">IF(COUNTIF(P3:P8,MAX(P3:P8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(P3:P8),P3:P8,0)))</f>
         <v>-</v>
       </c>
-      <c r="P8" s="12" t="str" cm="1">
-        <f t="array" ref="P8">IF(COUNTIF(P3:P7,MIN(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(P3:P7),P3:P7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="Q8" s="12" t="str" cm="1">
-        <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MIN(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(Q3:Q7),Q3:Q7,0)))</f>
+      <c r="Q9" s="11" t="str" cm="1">
+        <f t="array" ref="Q9">IF(COUNTIF(Q3:Q8,MAX(Q3:Q8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(Q3:Q8),Q3:Q8,0)))</f>
+        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
+      </c>
+      <c r="R9" s="11" t="str" cm="1">
+        <f t="array" ref="R9">IF(COUNTIF(R3:R8,MAX(R3:R8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(R3:R8),R3:R8,0)))</f>
         <v>-</v>
       </c>
-      <c r="R8" s="12" t="str" cm="1">
-        <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
+      <c r="S9" s="11" t="str" cm="1">
+        <f t="array" ref="S9">IF(COUNTIF(S3:S8,MAX(S3:S8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(S3:S8),S3:S8,0)))</f>
         <v>-</v>
       </c>
-      <c r="S8" s="12" t="str" cm="1">
-        <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="T8" s="12" t="str" cm="1">
-        <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
-      </c>
-      <c r="U8" s="12" t="str" cm="1">
-        <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
+      <c r="T9" s="11" t="str" cm="1">
+        <f t="array" ref="T9">IF(COUNTIF(T3:T8,MAX(T3:T8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(T3:T8),T3:T8,0)))</f>
         <v>-</v>
       </c>
-      <c r="V8" s="12" t="str" cm="1">
-        <f t="array" ref="V8">IF(COUNTIF(V3:V7,MAX(V3:V7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(V3:V7),V3:V7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
-      </c>
-      <c r="W8" s="12" t="str" cm="1">
-        <f t="array" ref="W8">IF(COUNTIF(W3:W7,MAX(W3:W7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(W3:W7),W3:W7,0)))</f>
+      <c r="U9" s="11" t="str" cm="1">
+        <f t="array" ref="U9">IF(COUNTIF(U3:U8,MAX(U3:U8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(U3:U8),U3:U8,0)))</f>
         <v>-</v>
       </c>
-      <c r="X8" s="12" t="str" cm="1">
-        <f t="array" ref="X8">IF(COUNTIF(X3:X7,MAX(X3:X7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(X3:X7),X3:X7,0)))</f>
+      <c r="V9" s="11" t="str" cm="1">
+        <f t="array" ref="V9">IF(COUNTIF(V3:V8,MAX(V3:V8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(V3:V8),V3:V8,0)))</f>
         <v>-</v>
       </c>
-      <c r="Y8" s="12" t="str" cm="1">
-        <f t="array" ref="Y8">IF(COUNTIF(Y3:Y7,MAX(Y3:Y7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Y3:Y7),Y3:Y7,0)))</f>
+      <c r="W9" s="11" t="str" cm="1">
+        <f t="array" ref="W9">IF(COUNTIF(W3:W8,MAX(W3:W8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(W3:W8),W3:W8,0)))</f>
         <v>-</v>
       </c>
-      <c r="Z8" s="13" t="str" cm="1">
-        <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:Y8,F8:Y8,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+      <c r="X9" s="12" t="str" cm="1">
+        <f t="array" ref="X9">INDEX(D9:W9,MODE(MATCH(D9:W9,D9:W9,0)))</f>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="U1:X1"/>
+  <mergeCells count="6">
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Resultados/Todos.xlsx
+++ b/Resultados/Todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F8278F-C257-421F-87E6-3DE078BA2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA14EAE9-802B-4A80-8199-E9E63618661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42296CBA-51D4-41C3-92BE-67861E1004E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
   <si>
     <t>Accuracy</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Tentativa 2</t>
   </si>
   <si>
-    <t>Xception</t>
-  </si>
-  <si>
     <t>Matriz de Confusão</t>
   </si>
   <si>
@@ -168,16 +165,7 @@
     <t>Com Tentativa 1 - Material + Ano (Do Zero)</t>
   </si>
   <si>
-    <t>modelo frio</t>
-  </si>
-  <si>
-    <t>modelo quente</t>
-  </si>
-  <si>
     <t>Com Tentativa 1 - Material + Estrutura (Do Zero)</t>
-  </si>
-  <si>
-    <t>Com Tentativa 1 - Material + Estrutura (Com Tentativa 1 - Material)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +228,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -345,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,26 +790,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E948D5B6-6FD1-4CEE-888B-32B16A089BB5}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -835,7 +835,7 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
       <c r="O1" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -975,181 +975,76 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="D7" s="5" t="str" cm="1">
-        <f t="array" ref="D7">IF(COUNTIF(D3:D6,MIN(D3:D6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(D3:D6),D3:D6,0)))</f>
+      <c r="A5" s="16"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D6" s="5" t="str" cm="1">
+        <f t="array" ref="D6">IF(COUNTIF(D3:D5,MIN(D3:D5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MIN(D3:D5),D3:D5,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="E7" s="5" t="str" cm="1">
-        <f t="array" ref="E7">IF(COUNTIF(E3:E6,MAX(E3:E6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(E3:E6),E3:E6,0)))</f>
+      <c r="E6" s="5" t="str" cm="1">
+        <f t="array" ref="E6">IF(COUNTIF(E3:E5,MAX(E3:E5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(E3:E5),E3:E5,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="F7" s="5" t="str" cm="1">
-        <f t="array" ref="F7">IF(COUNTIF(F3:F6,MAX(F3:F6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(F3:F6),F3:F6,0)))</f>
+      <c r="F6" s="5" t="str" cm="1">
+        <f t="array" ref="F6">IF(COUNTIF(F3:F5,MAX(F3:F5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(F3:F5),F3:F5,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="G7" s="5" t="str" cm="1">
-        <f t="array" ref="G7">IF(COUNTIF(G3:G6,MAX(G3:G6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(G3:G6),G3:G6,0)))</f>
+      <c r="G6" s="5" t="str" cm="1">
+        <f t="array" ref="G6">IF(COUNTIF(G3:G5,MAX(G3:G5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(G3:G5),G3:G5,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="H7" s="5" t="str" cm="1">
-        <f t="array" ref="H7">IF(COUNTIF(H3:H6,MIN(H3:H6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(H3:H6),H3:H6,0)))</f>
+      <c r="H6" s="5" t="str" cm="1">
+        <f t="array" ref="H6">IF(COUNTIF(H3:H5,MIN(H3:H5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MIN(H3:H5),H3:H5,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="I7" s="5" t="str" cm="1">
-        <f t="array" ref="I7">IF(COUNTIF(I3:I6,MIN(I3:I6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(I3:I6),I3:I6,0)))</f>
+      <c r="I6" s="5" t="str" cm="1">
+        <f t="array" ref="I6">IF(COUNTIF(I3:I5,MIN(I3:I5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MIN(I3:I5),I3:I5,0)))</f>
         <v>ResNet50 - Tentativa 1</v>
       </c>
-      <c r="J7" s="5" t="str" cm="1">
-        <f t="array" ref="J7">IF(COUNTIF(J3:J6,MIN(J3:J6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MIN(J3:J6),J3:J6,0)))</f>
+      <c r="J6" s="5" t="str" cm="1">
+        <f t="array" ref="J6">IF(COUNTIF(J3:J5,MIN(J3:J5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MIN(J3:J5),J3:J5,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="K7" s="5" t="str" cm="1">
-        <f t="array" ref="K7">IF(COUNTIF(K3:K6,MAX(K3:K6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(K3:K6),K3:K6,0)))</f>
+      <c r="K6" s="5" t="str" cm="1">
+        <f t="array" ref="K6">IF(COUNTIF(K3:K5,MAX(K3:K5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(K3:K5),K3:K5,0)))</f>
         <v>-</v>
       </c>
-      <c r="L7" s="5" t="str" cm="1">
-        <f t="array" ref="L7">IF(COUNTIF(L3:L6,MAX(L3:L6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(L3:L6),L3:L6,0)))</f>
+      <c r="L6" s="5" t="str" cm="1">
+        <f t="array" ref="L6">IF(COUNTIF(L3:L5,MAX(L3:L5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(L3:L5),L3:L5,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="M7" s="5" t="str" cm="1">
-        <f t="array" ref="M7">IF(COUNTIF(M3:M6,MAX(M3:M6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(M3:M6),M3:M6,0)))</f>
+      <c r="M6" s="5" t="str" cm="1">
+        <f t="array" ref="M6">IF(COUNTIF(M3:M5,MAX(M3:M5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(M3:M5),M3:M5,0)))</f>
         <v>-</v>
       </c>
-      <c r="N7" s="5" t="str" cm="1">
-        <f t="array" ref="N7">IF(COUNTIF(N3:N6,MAX(N3:N6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(N3:N6),N3:N6,0)))</f>
+      <c r="N6" s="5" t="str" cm="1">
+        <f t="array" ref="N6">IF(COUNTIF(N3:N5,MAX(N3:N5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(N3:N5),N3:N5,0)))</f>
         <v>-</v>
       </c>
-      <c r="O7" s="5" t="str" cm="1">
-        <f t="array" ref="O7">IF(COUNTIF(O3:O6,MAX(O3:O6))&gt;1, "-", INDEX($B$3:$B$6&amp; " - " &amp;$C$3:$C$6,MATCH(MAX(O3:O6),O3:O6,0)))</f>
+      <c r="O6" s="5" t="str" cm="1">
+        <f t="array" ref="O6">IF(COUNTIF(O3:O5,MAX(O3:O5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$C$3:$C$5,MATCH(MAX(O3:O5),O3:O5,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
-      <c r="P7" s="6" t="str" cm="1">
-        <f t="array" ref="P7">INDEX(D7:O7,MODE(MATCH(D7:O7,D7:O7,0)))</f>
+      <c r="P6" s="6" t="str" cm="1">
+        <f t="array" ref="P6">INDEX(D6:O6,MODE(MATCH(D6:O6,D6:O6,0)))</f>
         <v>ResNet50 - Tentativa 2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="20">
-        <v>56.77</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.95981454849243097</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.97367912530899048</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0.9596899151802063</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0.13870543241500799</v>
-      </c>
-      <c r="I10" s="21">
-        <v>7.9352341592311859E-2</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0.1194941774010658</v>
-      </c>
-      <c r="K10" s="20">
-        <v>3</v>
-      </c>
-      <c r="L10" s="20">
-        <v>2</v>
-      </c>
-      <c r="M10" s="20">
-        <v>1</v>
-      </c>
-      <c r="N10" s="20">
-        <v>1</v>
-      </c>
-      <c r="O10" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="20">
-        <v>210.47</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.94899535179138095</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.94987422227859497</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0.94418603181838989</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0.47598251700401301</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0.16247047483921051</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0.226772665977478</v>
-      </c>
-      <c r="K11" s="20">
-        <v>3</v>
-      </c>
-      <c r="L11" s="20">
-        <v>1</v>
-      </c>
-      <c r="M11" s="20">
-        <v>1</v>
-      </c>
-      <c r="N11" s="20">
-        <v>1</v>
-      </c>
-      <c r="O11" s="20">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
@@ -1170,17 +1065,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
@@ -1210,7 +1107,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
@@ -1222,7 +1119,7 @@
       <c r="S1" s="38"/>
       <c r="T1" s="38"/>
       <c r="U1" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
@@ -1249,16 +1146,16 @@
         <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>9</v>
@@ -1342,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1355,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="20">
         <v>46.52</v>
@@ -1421,21 +1318,51 @@
         <v>4</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="G5" s="24">
+        <v>0.87635236978530795</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.87613701820373535</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.86976742744445801</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0.39954149723052901</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0.40130078792572021</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0.38770806789398188</v>
+      </c>
+      <c r="M5" s="26">
+        <v>567</v>
+      </c>
+      <c r="N5" s="26">
+        <v>6</v>
+      </c>
+      <c r="O5" s="26">
+        <v>2</v>
+      </c>
+      <c r="P5" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
@@ -1447,24 +1374,54 @@
         <v>17</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="G6" s="24">
+        <v>0.89489954710006703</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.88852334022521973</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.89147287607192993</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.47481241822242698</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.41883754730224609</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.44790241122245789</v>
+      </c>
+      <c r="M6" s="26">
+        <v>579</v>
+      </c>
+      <c r="N6" s="26">
+        <v>5</v>
+      </c>
+      <c r="O6" s="26">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -1495,7 +1452,7 @@
       </c>
       <c r="G8" s="5" t="str" cm="1">
         <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
       <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
@@ -1503,27 +1460,27 @@
       </c>
       <c r="I8" s="5" t="str" cm="1">
         <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
       <c r="J8" s="5" t="str" cm="1">
         <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
       <c r="K8" s="5" t="str" cm="1">
         <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
       <c r="L8" s="5" t="str" cm="1">
         <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Do Zero</v>
       </c>
       <c r="M8" s="5" t="str" cm="1">
         <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
       <c r="N8" s="5" t="str" cm="1">
         <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
       <c r="O8" s="5" t="str" cm="1">
         <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
@@ -1531,11 +1488,11 @@
       </c>
       <c r="P8" s="5" t="str" cm="1">
         <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>-</v>
       </c>
       <c r="Q8" s="5" t="str" cm="1">
         <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
       <c r="R8" s="5" t="str" cm="1">
         <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
@@ -1551,11 +1508,11 @@
       </c>
       <c r="U8" s="5" t="str" cm="1">
         <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>-</v>
       </c>
       <c r="V8" s="6" t="str" cm="1">
         <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:U8,F8:U8,0)))</f>
-        <v>ResNet50 - Tentativa 1 Do Zero</v>
+        <v>ResNet50 - Tentativa 2 Com Tentativa 2 - Material</v>
       </c>
     </row>
   </sheetData>
@@ -1579,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1115E266-ACA4-4298-BBB5-A2C24B7DE1CC}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U5" sqref="U5"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1624,7 +1581,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
@@ -1636,7 +1593,7 @@
       <c r="S1" s="38"/>
       <c r="T1" s="38"/>
       <c r="U1" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W1" t="s">
         <v>16</v>
@@ -1663,16 +1620,16 @@
         <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>9</v>
@@ -1756,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1769,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="20">
         <v>53.62</v>
@@ -1821,746 +1778,671 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="5" t="str" cm="1">
-        <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
+      <c r="A5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" s="5" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="F6" s="5" t="str" cm="1">
+        <f t="array" ref="F6">IF(COUNTIF(F3:F5,MIN(F3:F5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(F3:F5),F3:F5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="G8" s="5" t="str" cm="1">
-        <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
+      <c r="G6" s="5" t="str" cm="1">
+        <f t="array" ref="G6">IF(COUNTIF(G3:G5,MAX(G3:G5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(G3:G5),G3:G5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="H8" s="5" t="str" cm="1">
-        <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
+      <c r="H6" s="5" t="str" cm="1">
+        <f t="array" ref="H6">IF(COUNTIF(H3:H5,MAX(H3:H5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(H3:H5),H3:H5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="I8" s="5" t="str" cm="1">
-        <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
+      <c r="I6" s="5" t="str" cm="1">
+        <f t="array" ref="I6">IF(COUNTIF(I3:I5,MAX(I3:I5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(I3:I5),I3:I5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="J8" s="5" t="str" cm="1">
-        <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
+      <c r="J6" s="5" t="str" cm="1">
+        <f t="array" ref="J6">IF(COUNTIF(J3:J5,MIN(J3:J5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(J3:J5),J3:J5,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="K8" s="5" t="str" cm="1">
-        <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
+      <c r="K6" s="5" t="str" cm="1">
+        <f t="array" ref="K6">IF(COUNTIF(K3:K5,MIN(K3:K5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(K3:K5),K3:K5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="L8" s="5" t="str" cm="1">
-        <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
+      <c r="L6" s="5" t="str" cm="1">
+        <f t="array" ref="L6">IF(COUNTIF(L3:L5,MIN(L3:L5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(L3:L5),L3:L5,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="M8" s="5" t="str" cm="1">
-        <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
+      <c r="M6" s="5" t="str" cm="1">
+        <f t="array" ref="M6">IF(COUNTIF(M3:M5,MAX(M3:M5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(M3:M5),M3:M5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="N8" s="5" t="str" cm="1">
-        <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
+      <c r="N6" s="5" t="str" cm="1">
+        <f t="array" ref="N6">IF(COUNTIF(N3:N5,MIN(N3:N5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MIN(N3:N5),N3:N5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="O8" s="5" t="str" cm="1">
-        <f t="array" ref="O8">IF(COUNTIF(O3:O7,MAX(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(O3:O7),O3:O7,0)))</f>
+      <c r="O6" s="5" t="str" cm="1">
+        <f t="array" ref="O6">IF(COUNTIF(O3:O5,MAX(O3:O5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(O3:O5),O3:O5,0)))</f>
         <v>-</v>
       </c>
-      <c r="P8" s="5" t="str" cm="1">
-        <f t="array" ref="P8">IF(COUNTIF(P3:P7,MAX(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(P3:P7),P3:P7,0)))</f>
+      <c r="P6" s="5" t="str" cm="1">
+        <f t="array" ref="P6">IF(COUNTIF(P3:P5,MAX(P3:P5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(P3:P5),P3:P5,0)))</f>
         <v>-</v>
       </c>
-      <c r="Q8" s="5" t="str" cm="1">
-        <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MAX(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Q3:Q7),Q3:Q7,0)))</f>
+      <c r="Q6" s="5" t="str" cm="1">
+        <f t="array" ref="Q6">IF(COUNTIF(Q3:Q5,MAX(Q3:Q5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(Q3:Q5),Q3:Q5,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
-      <c r="R8" s="5" t="str" cm="1">
-        <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
+      <c r="R6" s="5" t="str" cm="1">
+        <f t="array" ref="R6">IF(COUNTIF(R3:R5,MAX(R3:R5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(R3:R5),R3:R5,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="S8" s="5" t="str" cm="1">
-        <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
+      <c r="S6" s="5" t="str" cm="1">
+        <f t="array" ref="S6">IF(COUNTIF(S3:S5,MAX(S3:S5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(S3:S5),S3:S5,0)))</f>
         <v>-</v>
       </c>
-      <c r="T8" s="5" t="str" cm="1">
-        <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
+      <c r="T6" s="5" t="str" cm="1">
+        <f t="array" ref="T6">IF(COUNTIF(T3:T5,MAX(T3:T5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(T3:T5),T3:T5,0)))</f>
         <v>-</v>
       </c>
-      <c r="U8" s="5" t="str" cm="1">
-        <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
+      <c r="U6" s="5" t="str" cm="1">
+        <f t="array" ref="U6">IF(COUNTIF(U3:U5,MAX(U3:U5))&gt;1, "-", INDEX($B$3:$B$5&amp; " - " &amp;$D$3:$D$5&amp;" "&amp;$E$3:$E$5,MATCH(MAX(U3:U5),U3:U5,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="V8" s="6" t="str" cm="1">
-        <f t="array" ref="V8">INDEX(F8:U8,MODE(MATCH(F8:U8,F8:U8,0)))</f>
+      <c r="V6" s="6" t="str" cm="1">
+        <f t="array" ref="V6">INDEX(F6:U6,MODE(MATCH(F6:U6,F6:U6,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="M8" formula="1"/>
+    <ignoredError sqref="M6" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD65A55-3C06-4E61-8437-99FEA8335048}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:J7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.90625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.1796875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="46.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="8" style="17" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="46.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D1" s="36" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
       <c r="V1" s="38"/>
-      <c r="W1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D2" s="37"/>
-      <c r="E2" s="4" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="F2" s="37"/>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="S2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="37"/>
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>57.54</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0.80340558290481501</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0.85476052761077881</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.81055903434753418</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.81091165542602495</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0.47718361020088201</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0.71769535541534424</v>
+      </c>
+      <c r="M3" s="26">
+        <v>517</v>
+      </c>
+      <c r="N3" s="26">
+        <v>8</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>6</v>
+      </c>
+      <c r="R3" s="26">
+        <v>0</v>
+      </c>
+      <c r="S3" s="26">
+        <v>4</v>
+      </c>
+      <c r="T3" s="26">
+        <v>10</v>
+      </c>
+      <c r="U3" s="3">
+        <v>10</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32"/>
+      <c r="B4" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45.24</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.80340558290481501</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.85650569200515747</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.81211179494857788</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.81817501783370905</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0.47528329491615301</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0.70388239622116089</v>
+      </c>
+      <c r="M4" s="26">
+        <v>519</v>
+      </c>
+      <c r="N4" s="26">
+        <v>12</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>7</v>
+      </c>
+      <c r="R4" s="26">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
+        <v>5</v>
+      </c>
+      <c r="T4" s="26">
+        <v>10</v>
+      </c>
+      <c r="U4" s="3">
+        <v>10</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
+      <c r="B5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="F5" s="3">
+        <v>47.04</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.801857590675354</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.85669964551925659</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.81366461515426636</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0.80864077806472701</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0.47709423303604132</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0.70010066032409668</v>
+      </c>
+      <c r="M5" s="26">
+        <v>517</v>
+      </c>
+      <c r="N5" s="26">
         <v>9</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="37"/>
-      <c r="Y2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>7</v>
+      </c>
+      <c r="R5" s="26">
+        <v>0</v>
+      </c>
+      <c r="S5" s="26">
+        <v>5</v>
+      </c>
+      <c r="T5" s="26">
+        <v>9</v>
+      </c>
+      <c r="U5" s="3">
+        <v>10</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="32"/>
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>57.54</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0.80340558290481501</v>
-      </c>
-      <c r="F3" s="24">
-        <v>0.85476052761077881</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0.81055903434753418</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0.81091165542602495</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0.47718361020088201</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0.71769535541534424</v>
-      </c>
-      <c r="K3" s="26">
-        <v>517</v>
-      </c>
-      <c r="L3" s="26">
+      <c r="C6" s="32"/>
+      <c r="D6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3">
+        <v>49.93</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.80959755182266202</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.85456663370132446</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.81987577676773071</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.79775148630142201</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.47325345873832703</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.69029319286346436</v>
+      </c>
+      <c r="M6" s="26">
+        <v>522</v>
+      </c>
+      <c r="N6" s="26">
+        <v>10</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>7</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0</v>
+      </c>
+      <c r="S6" s="26">
+        <v>6</v>
+      </c>
+      <c r="T6" s="26">
+        <v>10</v>
+      </c>
+      <c r="U6" s="3">
+        <v>10</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
         <v>8</v>
       </c>
-      <c r="M3" s="26">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26">
-        <v>3</v>
-      </c>
-      <c r="O3" s="26">
-        <v>6</v>
-      </c>
-      <c r="P3" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="26">
-        <v>4</v>
-      </c>
-      <c r="R3" s="26">
-        <v>10</v>
-      </c>
-      <c r="S3" s="3">
-        <v>10</v>
-      </c>
-      <c r="T3" s="3">
-        <v>2</v>
-      </c>
-      <c r="U3" s="3">
-        <v>2</v>
-      </c>
-      <c r="V3" s="3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45.24</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.80340558290481501</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0.85650569200515747</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0.81211179494857788</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0.81817501783370905</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0.47528329491615301</v>
-      </c>
-      <c r="J4" s="24">
-        <v>0.70388239622116089</v>
-      </c>
-      <c r="K4" s="26">
-        <v>519</v>
-      </c>
-      <c r="L4" s="26">
-        <v>12</v>
-      </c>
-      <c r="M4" s="26">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26">
-        <v>2</v>
-      </c>
-      <c r="O4" s="26">
-        <v>7</v>
-      </c>
-      <c r="P4" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="26">
-        <v>5</v>
-      </c>
-      <c r="R4" s="26">
-        <v>10</v>
-      </c>
-      <c r="S4" s="3">
-        <v>10</v>
-      </c>
-      <c r="T4" s="3">
-        <v>2</v>
-      </c>
-      <c r="U4" s="3">
-        <v>2</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3">
-        <v>47.04</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0.801857590675354</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0.85669964551925659</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0.81366461515426636</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0.80864077806472701</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0.47709423303604132</v>
-      </c>
-      <c r="J5" s="24">
-        <v>0.70010066032409668</v>
-      </c>
-      <c r="K5" s="26">
-        <v>517</v>
-      </c>
-      <c r="L5" s="26">
-        <v>9</v>
-      </c>
-      <c r="M5" s="26">
-        <v>0</v>
-      </c>
-      <c r="N5" s="26">
-        <v>2</v>
-      </c>
-      <c r="O5" s="26">
-        <v>7</v>
-      </c>
-      <c r="P5" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>5</v>
-      </c>
-      <c r="R5" s="26">
-        <v>9</v>
-      </c>
-      <c r="S5" s="3">
-        <v>10</v>
-      </c>
-      <c r="T5" s="3">
-        <v>2</v>
-      </c>
-      <c r="U5" s="3">
-        <v>2</v>
-      </c>
-      <c r="V5" s="3">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3">
-        <v>49.93</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0.80959755182266202</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0.85456663370132446</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0.81987577676773071</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0.79775148630142201</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0.47325345873832703</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0.69029319286346436</v>
-      </c>
-      <c r="K6" s="26">
-        <v>522</v>
-      </c>
-      <c r="L6" s="26">
-        <v>10</v>
-      </c>
-      <c r="M6" s="26">
-        <v>0</v>
-      </c>
-      <c r="N6" s="26">
-        <v>2</v>
-      </c>
-      <c r="O6" s="26">
-        <v>7</v>
-      </c>
-      <c r="P6" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>6</v>
-      </c>
-      <c r="R6" s="26">
-        <v>10</v>
-      </c>
-      <c r="S6" s="3">
-        <v>10</v>
-      </c>
-      <c r="T6" s="3">
-        <v>2</v>
-      </c>
-      <c r="U6" s="3">
-        <v>2</v>
-      </c>
-      <c r="V6" s="3">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:25" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="11" t="str" cm="1">
-        <f t="array" ref="D9">IF(COUNTIF(D3:D8,MIN(D3:D8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(D3:D8),D3:D8,0)))</f>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="11" t="str" cm="1">
+        <f t="array" ref="F8">IF(COUNTIF(F3:F7,MIN(F3:F7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(F3:F7),F3:F7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Do Zero)</v>
       </c>
-      <c r="E9" s="11" t="str" cm="1">
-        <f t="array" ref="E9">IF(COUNTIF(E3:E8,MAX(E3:E8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(E3:E8),E3:E8,0)))</f>
+      <c r="G8" s="11" t="str" cm="1">
+        <f t="array" ref="G8">IF(COUNTIF(G3:G7,MAX(G3:G7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(G3:G7),G3:G7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
       </c>
-      <c r="F9" s="11" t="str" cm="1">
-        <f t="array" ref="F9">IF(COUNTIF(F3:F8,MAX(F3:F8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(F3:F8),F3:F8,0)))</f>
+      <c r="H8" s="11" t="str" cm="1">
+        <f t="array" ref="H8">IF(COUNTIF(H3:H7,MAX(H3:H7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(H3:H7),H3:H7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Ano (Com Tentativa 1 - Material)</v>
       </c>
-      <c r="G9" s="11" t="str" cm="1">
-        <f t="array" ref="G9">IF(COUNTIF(G3:G8,MAX(G3:G8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(G3:G8),G3:G8,0)))</f>
+      <c r="I8" s="11" t="str" cm="1">
+        <f t="array" ref="I8">IF(COUNTIF(I3:I7,MAX(I3:I7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(I3:I7),I3:I7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
       </c>
-      <c r="H9" s="11" t="str" cm="1">
-        <f t="array" ref="H9">IF(COUNTIF(H3:H8,MIN(H3:H8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(H3:H8),H3:H8,0)))</f>
+      <c r="J8" s="11" t="str" cm="1">
+        <f t="array" ref="J8">IF(COUNTIF(J3:J7,MIN(J3:J7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(J3:J7),J3:J7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
       </c>
-      <c r="I9" s="11" t="str" cm="1">
-        <f t="array" ref="I9">IF(COUNTIF(I3:I8,MIN(I3:I8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(I3:I8),I3:I8,0)))</f>
+      <c r="K8" s="11" t="str" cm="1">
+        <f t="array" ref="K8">IF(COUNTIF(K3:K7,MIN(K3:K7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(K3:K7),K3:K7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
       </c>
-      <c r="J9" s="11" t="str" cm="1">
-        <f t="array" ref="J9">IF(COUNTIF(J3:J8,MIN(J3:J8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(J3:J8),J3:J8,0)))</f>
+      <c r="L8" s="11" t="str" cm="1">
+        <f t="array" ref="L8">IF(COUNTIF(L3:L7,MIN(L3:L7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(L3:L7),L3:L7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
       </c>
-      <c r="K9" s="11" t="str" cm="1">
-        <f t="array" ref="K9">IF(COUNTIF(K3:K8,MAX(K3:K8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(K3:K8),K3:K8,0)))</f>
+      <c r="M8" s="11" t="str" cm="1">
+        <f t="array" ref="M8">IF(COUNTIF(M3:M7,MAX(M3:M7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(M3:M7),M3:M7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
       </c>
-      <c r="L9" s="11" t="str" cm="1">
-        <f t="array" ref="L9">IF(COUNTIF(L3:L8,MIN(L3:L8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(L3:L8),L3:L8,0)))</f>
+      <c r="N8" s="11" t="str" cm="1">
+        <f t="array" ref="N8">IF(COUNTIF(N3:N7,MIN(N3:N7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(N3:N7),N3:N7,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="M9" s="11" t="str" cm="1">
-        <f t="array" ref="M9">IF(COUNTIF(M3:M8,MIN(M3:M8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(M3:M8),M3:M8,0)))</f>
+      <c r="O8" s="11" t="str" cm="1">
+        <f t="array" ref="O8">IF(COUNTIF(O3:O7,MIN(O3:O7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(O3:O7),O3:O7,0)))</f>
         <v>-</v>
       </c>
-      <c r="N9" s="11" t="str" cm="1">
-        <f t="array" ref="N9">IF(COUNTIF(N3:N8,MIN(N3:N8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(N3:N8),N3:N8,0)))</f>
+      <c r="P8" s="11" t="str" cm="1">
+        <f t="array" ref="P8">IF(COUNTIF(P3:P7,MIN(P3:P7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(P3:P7),P3:P7,0)))</f>
         <v>-</v>
       </c>
-      <c r="O9" s="11" t="str" cm="1">
-        <f t="array" ref="O9">IF(COUNTIF(O3:O8,MIN(O3:O8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MIN(O3:O8),O3:O8,0)))</f>
+      <c r="Q8" s="11" t="str" cm="1">
+        <f t="array" ref="Q8">IF(COUNTIF(Q3:Q7,MIN(Q3:Q7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MIN(Q3:Q7),Q3:Q7,0)))</f>
         <v>ResNet50 - Tentativa 1 Do Zero</v>
       </c>
-      <c r="P9" s="11" t="str" cm="1">
-        <f t="array" ref="P9">IF(COUNTIF(P3:P8,MAX(P3:P8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(P3:P8),P3:P8,0)))</f>
+      <c r="R8" s="11" t="str" cm="1">
+        <f t="array" ref="R8">IF(COUNTIF(R3:R7,MAX(R3:R7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(R3:R7),R3:R7,0)))</f>
         <v>-</v>
       </c>
-      <c r="Q9" s="11" t="str" cm="1">
-        <f t="array" ref="Q9">IF(COUNTIF(Q3:Q8,MAX(Q3:Q8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(Q3:Q8),Q3:Q8,0)))</f>
+      <c r="S8" s="11" t="str" cm="1">
+        <f t="array" ref="S8">IF(COUNTIF(S3:S7,MAX(S3:S7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(S3:S7),S3:S7,0)))</f>
         <v>ResNet50 - Tentativa 1 Com Tentativa 1 - Material + Estrutura (Do Zero)</v>
       </c>
-      <c r="R9" s="11" t="str" cm="1">
-        <f t="array" ref="R9">IF(COUNTIF(R3:R8,MAX(R3:R8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(R3:R8),R3:R8,0)))</f>
+      <c r="T8" s="11" t="str" cm="1">
+        <f t="array" ref="T8">IF(COUNTIF(T3:T7,MAX(T3:T7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(T3:T7),T3:T7,0)))</f>
         <v>-</v>
       </c>
-      <c r="S9" s="11" t="str" cm="1">
-        <f t="array" ref="S9">IF(COUNTIF(S3:S8,MAX(S3:S8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(S3:S8),S3:S8,0)))</f>
+      <c r="U8" s="11" t="str" cm="1">
+        <f t="array" ref="U8">IF(COUNTIF(U3:U7,MAX(U3:U7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(U3:U7),U3:U7,0)))</f>
         <v>-</v>
       </c>
-      <c r="T9" s="11" t="str" cm="1">
-        <f t="array" ref="T9">IF(COUNTIF(T3:T8,MAX(T3:T8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(T3:T8),T3:T8,0)))</f>
+      <c r="V8" s="11" t="str" cm="1">
+        <f t="array" ref="V8">IF(COUNTIF(V3:V7,MAX(V3:V7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(V3:V7),V3:V7,0)))</f>
         <v>-</v>
       </c>
-      <c r="U9" s="11" t="str" cm="1">
-        <f t="array" ref="U9">IF(COUNTIF(U3:U8,MAX(U3:U8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(U3:U8),U3:U8,0)))</f>
+      <c r="W8" s="11" t="str" cm="1">
+        <f t="array" ref="W8">IF(COUNTIF(W3:W7,MAX(W3:W7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(W3:W7),W3:W7,0)))</f>
         <v>-</v>
       </c>
-      <c r="V9" s="11" t="str" cm="1">
-        <f t="array" ref="V9">IF(COUNTIF(V3:V8,MAX(V3:V8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(V3:V8),V3:V8,0)))</f>
+      <c r="X8" s="11" t="str" cm="1">
+        <f t="array" ref="X8">IF(COUNTIF(X3:X7,MAX(X3:X7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(X3:X7),X3:X7,0)))</f>
         <v>-</v>
       </c>
-      <c r="W9" s="11" t="str" cm="1">
-        <f t="array" ref="W9">IF(COUNTIF(W3:W8,MAX(W3:W8))&gt;1, "-", INDEX($A$3:$A$8&amp; " - " &amp;$B$3:$B$8&amp;" "&amp;$C$3:$C$8,MATCH(MAX(W3:W8),W3:W8,0)))</f>
+      <c r="Y8" s="11" t="str" cm="1">
+        <f t="array" ref="Y8">IF(COUNTIF(Y3:Y7,MAX(Y3:Y7))&gt;1, "-", INDEX($B$3:$B$7&amp; " - " &amp;$D$3:$D$7&amp;" "&amp;$E$3:$E$7,MATCH(MAX(Y3:Y7),Y3:Y7,0)))</f>
         <v>-</v>
       </c>
-      <c r="X9" s="12" t="str" cm="1">
-        <f t="array" ref="X9">INDEX(D9:W9,MODE(MATCH(D9:W9,D9:W9,0)))</f>
+      <c r="Z8" s="12" t="str" cm="1">
+        <f t="array" ref="Z8">INDEX(F8:Y8,MODE(MATCH(F8:Y8,F8:Y8,0)))</f>
         <v>-</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="S1:V1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K9" formula="1"/>
+    <ignoredError sqref="M8" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>